--- a/Mars Test Conditions and Test cases .xlsx
+++ b/Mars Test Conditions and Test cases .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIPER\source\repos\piper9797\Skillwap_Test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FC4D6-7D0A-48D3-A068-71D1E924EF09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266FD9B-E916-4C67-B951-A7A2CE27B0F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Conditions-Registration" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="517">
   <si>
     <t>ID</t>
   </si>
@@ -3888,6 +3888,58 @@
   </si>
   <si>
     <t>defect ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can login an account with valid data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 3: Login with Valid Credentials Username: mvpstudio.qa@gmail.com Password:SydneyQa2018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 3: Fill up the user Email address "mvpstudio.qa@gmail.com"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4: Fill up the user password  "SydneyQa2018"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 5: Click the "Login" button on sign in page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The User should be able to navigate to sign in page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The User should be able to fill in user's email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The User should be able to fill in user's password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The User should be able to login sucessfully</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can login an account with invalid data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 3: Fill up the user Email address "d"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4: Fill up the user password  "d"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The User should be able to login unsucessfully</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3972,7 +4024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4019,11 +4071,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4116,6 +4225,23 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4137,22 +4263,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4520,32 +4644,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="36" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="36" t="s">
         <v>450</v>
       </c>
     </row>
@@ -4625,10 +4749,10 @@
       <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="46" t="s">
         <v>445</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -4639,8 +4763,8 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="30" t="s">
         <v>330</v>
       </c>
@@ -4649,8 +4773,8 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="31" t="s">
         <v>443</v>
       </c>
@@ -4659,8 +4783,8 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="31" t="s">
         <v>441</v>
       </c>
@@ -4669,8 +4793,8 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="31" t="s">
         <v>439</v>
       </c>
@@ -4679,8 +4803,8 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="31" t="s">
         <v>433</v>
       </c>
@@ -4692,10 +4816,10 @@
       <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="48" t="s">
         <v>281</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -4706,8 +4830,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="30" t="s">
         <v>330</v>
       </c>
@@ -4716,8 +4840,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="31" t="s">
         <v>443</v>
       </c>
@@ -4726,8 +4850,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="31" t="s">
         <v>441</v>
       </c>
@@ -4736,8 +4860,8 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="31" t="s">
         <v>439</v>
       </c>
@@ -4746,8 +4870,8 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="31" t="s">
         <v>433</v>
       </c>
@@ -4759,10 +4883,10 @@
       <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="48" t="s">
         <v>282</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -4773,8 +4897,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="30" t="s">
         <v>330</v>
       </c>
@@ -4783,8 +4907,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="31" t="s">
         <v>435</v>
       </c>
@@ -4793,8 +4917,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="31" t="s">
         <v>433</v>
       </c>
@@ -4803,10 +4927,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="48" t="s">
         <v>284</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -4817,8 +4941,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="30" t="s">
         <v>330</v>
       </c>
@@ -4827,17 +4951,17 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="48"/>
       <c r="C23" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="48" t="s">
         <v>286</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -4848,8 +4972,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="30" t="s">
         <v>330</v>
       </c>
@@ -4858,8 +4982,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="30" t="s">
         <v>423</v>
       </c>
@@ -4868,8 +4992,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="30" t="s">
         <v>430</v>
       </c>
@@ -4878,10 +5002,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="48" t="s">
         <v>287</v>
       </c>
       <c r="C30" s="30" t="s">
@@ -4892,8 +5016,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="30" t="s">
         <v>330</v>
       </c>
@@ -4902,8 +5026,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="30" t="s">
         <v>423</v>
       </c>
@@ -4912,8 +5036,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="30" t="s">
         <v>428</v>
       </c>
@@ -4922,10 +5046,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="48" t="s">
         <v>288</v>
       </c>
       <c r="C35" s="30" t="s">
@@ -4936,8 +5060,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="30" t="s">
         <v>330</v>
       </c>
@@ -4946,8 +5070,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="30" t="s">
         <v>423</v>
       </c>
@@ -4956,8 +5080,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="30" t="s">
         <v>426</v>
       </c>
@@ -4966,10 +5090,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="48" t="s">
         <v>289</v>
       </c>
       <c r="C40" s="30" t="s">
@@ -4980,8 +5104,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="30" t="s">
         <v>330</v>
       </c>
@@ -4990,8 +5114,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="30" t="s">
         <v>423</v>
       </c>
@@ -5000,8 +5124,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="30" t="s">
         <v>421</v>
       </c>
@@ -5010,10 +5134,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="48" t="s">
         <v>291</v>
       </c>
       <c r="C45" s="30" t="s">
@@ -5024,8 +5148,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="30" t="s">
         <v>330</v>
       </c>
@@ -5034,8 +5158,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="30" t="s">
         <v>417</v>
       </c>
@@ -5044,8 +5168,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="41"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="30" t="s">
         <v>419</v>
       </c>
@@ -5054,10 +5178,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="48" t="s">
         <v>292</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -5068,8 +5192,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="30" t="s">
         <v>330</v>
       </c>
@@ -5078,8 +5202,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="30" t="s">
         <v>417</v>
       </c>
@@ -5088,8 +5212,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="30" t="s">
         <v>415</v>
       </c>
@@ -5098,10 +5222,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="48" t="s">
         <v>294</v>
       </c>
       <c r="C55" s="30" t="s">
@@ -5112,8 +5236,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="30" t="s">
         <v>330</v>
       </c>
@@ -5122,8 +5246,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="30" t="s">
         <v>413</v>
       </c>
@@ -5132,8 +5256,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="30" t="s">
         <v>409</v>
       </c>
@@ -5142,10 +5266,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="48" t="s">
         <v>295</v>
       </c>
       <c r="C60" s="30" t="s">
@@ -5156,8 +5280,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="36"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="30" t="s">
         <v>330</v>
       </c>
@@ -5166,8 +5290,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A62" s="36"/>
-      <c r="B62" s="41"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="30" t="s">
         <v>411</v>
       </c>
@@ -5176,8 +5300,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="30" t="s">
         <v>409</v>
       </c>
@@ -5186,10 +5310,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="48" t="s">
         <v>297</v>
       </c>
       <c r="C65" s="30" t="s">
@@ -5200,8 +5324,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="36"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="30" t="s">
         <v>330</v>
       </c>
@@ -5210,8 +5334,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="36"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="30" t="s">
         <v>407</v>
       </c>
@@ -5220,8 +5344,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="36"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="30" t="s">
         <v>403</v>
       </c>
@@ -5230,10 +5354,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="48" t="s">
         <v>298</v>
       </c>
       <c r="C70" s="30" t="s">
@@ -5244,8 +5368,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
-      <c r="B71" s="41"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="30" t="s">
         <v>330</v>
       </c>
@@ -5254,8 +5378,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="30" t="s">
         <v>405</v>
       </c>
@@ -5264,8 +5388,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="30" t="s">
         <v>403</v>
       </c>
@@ -5274,10 +5398,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="48" t="s">
         <v>300</v>
       </c>
       <c r="C75" s="30" t="s">
@@ -5288,8 +5412,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="30" t="s">
         <v>330</v>
       </c>
@@ -5298,8 +5422,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="37"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="30" t="s">
         <v>401</v>
       </c>
@@ -5308,8 +5432,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A78" s="37"/>
-      <c r="B78" s="41"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="30" t="s">
         <v>399</v>
       </c>
@@ -5326,10 +5450,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="30" t="s">
@@ -5340,8 +5464,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="41"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="30" t="s">
         <v>330</v>
       </c>
@@ -5350,8 +5474,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="37"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="30" t="s">
         <v>397</v>
       </c>
@@ -5360,8 +5484,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="30" t="s">
         <v>395</v>
       </c>
@@ -5370,8 +5494,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="37"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="30" t="s">
         <v>394</v>
       </c>
@@ -5380,10 +5504,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="48" t="s">
         <v>302</v>
       </c>
       <c r="C85" s="30" t="s">
@@ -5394,8 +5518,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="41"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="30" t="s">
         <v>330</v>
       </c>
@@ -5404,8 +5528,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="41"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="30" t="s">
         <v>379</v>
       </c>
@@ -5414,10 +5538,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="48" t="s">
         <v>392</v>
       </c>
       <c r="C89" s="30" t="s">
@@ -5428,8 +5552,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="37"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="30" t="s">
         <v>330</v>
       </c>
@@ -5438,8 +5562,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A91" s="37"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="30" t="s">
         <v>379</v>
       </c>
@@ -5448,8 +5572,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="30" t="s">
         <v>348</v>
       </c>
@@ -5458,8 +5582,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
-      <c r="B93" s="41"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="30" t="s">
         <v>390</v>
       </c>
@@ -5468,8 +5592,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="41"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="30" t="s">
         <v>388</v>
       </c>
@@ -5478,8 +5602,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="41"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="30" t="s">
         <v>376</v>
       </c>
@@ -5488,10 +5612,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="37" t="s">
+      <c r="A97" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="48" t="s">
         <v>304</v>
       </c>
       <c r="C97" s="30" t="s">
@@ -5502,8 +5626,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="30" t="s">
         <v>330</v>
       </c>
@@ -5512,8 +5636,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="30" t="s">
         <v>379</v>
       </c>
@@ -5522,8 +5646,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="30" t="s">
         <v>348</v>
       </c>
@@ -5532,8 +5656,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="41"/>
+      <c r="A101" s="44"/>
+      <c r="B101" s="48"/>
       <c r="C101" s="30" t="s">
         <v>390</v>
       </c>
@@ -5542,8 +5666,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="37"/>
-      <c r="B102" s="41"/>
+      <c r="A102" s="44"/>
+      <c r="B102" s="48"/>
       <c r="C102" s="30" t="s">
         <v>388</v>
       </c>
@@ -5552,8 +5676,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="41"/>
+      <c r="A103" s="44"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="30" t="s">
         <v>386</v>
       </c>
@@ -5562,10 +5686,10 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="48" t="s">
         <v>384</v>
       </c>
       <c r="C105" s="30" t="s">
@@ -5576,8 +5700,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="41"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="30" t="s">
         <v>330</v>
       </c>
@@ -5586,8 +5710,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A107" s="37"/>
-      <c r="B107" s="41"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="30" t="s">
         <v>379</v>
       </c>
@@ -5596,8 +5720,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A108" s="37"/>
-      <c r="B108" s="41"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="48"/>
       <c r="C108" s="30" t="s">
         <v>369</v>
       </c>
@@ -5606,8 +5730,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A109" s="37"/>
-      <c r="B109" s="41"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="30" t="s">
         <v>368</v>
       </c>
@@ -5616,8 +5740,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A110" s="37"/>
-      <c r="B110" s="41"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="48"/>
       <c r="C110" s="30" t="s">
         <v>367</v>
       </c>
@@ -5626,10 +5750,10 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="48" t="s">
         <v>306</v>
       </c>
       <c r="C112" s="30" t="s">
@@ -5640,8 +5764,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="37"/>
-      <c r="B113" s="41"/>
+      <c r="A113" s="44"/>
+      <c r="B113" s="48"/>
       <c r="C113" s="30" t="s">
         <v>330</v>
       </c>
@@ -5650,8 +5774,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A114" s="37"/>
-      <c r="B114" s="41"/>
+      <c r="A114" s="44"/>
+      <c r="B114" s="48"/>
       <c r="C114" s="30" t="s">
         <v>379</v>
       </c>
@@ -5660,8 +5784,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A115" s="37"/>
-      <c r="B115" s="41"/>
+      <c r="A115" s="44"/>
+      <c r="B115" s="48"/>
       <c r="C115" s="30" t="s">
         <v>382</v>
       </c>
@@ -5670,8 +5794,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A116" s="37"/>
-      <c r="B116" s="41"/>
+      <c r="A116" s="44"/>
+      <c r="B116" s="48"/>
       <c r="C116" s="30" t="s">
         <v>336</v>
       </c>
@@ -5680,8 +5804,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A117" s="37"/>
-      <c r="B117" s="41"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="48"/>
       <c r="C117" s="30" t="s">
         <v>381</v>
       </c>
@@ -5690,10 +5814,10 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="41" t="s">
+      <c r="B119" s="48" t="s">
         <v>307</v>
       </c>
       <c r="C119" s="30" t="s">
@@ -5704,8 +5828,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="37"/>
-      <c r="B120" s="41"/>
+      <c r="A120" s="44"/>
+      <c r="B120" s="48"/>
       <c r="C120" s="30" t="s">
         <v>330</v>
       </c>
@@ -5714,8 +5838,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A121" s="37"/>
-      <c r="B121" s="41"/>
+      <c r="A121" s="44"/>
+      <c r="B121" s="48"/>
       <c r="C121" s="30" t="s">
         <v>379</v>
       </c>
@@ -5724,8 +5848,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="37"/>
-      <c r="B122" s="41"/>
+      <c r="A122" s="44"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="30" t="s">
         <v>363</v>
       </c>
@@ -5734,10 +5858,10 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="37" t="s">
+      <c r="A124" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="48" t="s">
         <v>309</v>
       </c>
       <c r="C124" s="30" t="s">
@@ -5748,8 +5872,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="37"/>
-      <c r="B125" s="41"/>
+      <c r="A125" s="44"/>
+      <c r="B125" s="48"/>
       <c r="C125" s="30" t="s">
         <v>330</v>
       </c>
@@ -5758,8 +5882,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A126" s="37"/>
-      <c r="B126" s="41"/>
+      <c r="A126" s="44"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="30" t="s">
         <v>365</v>
       </c>
@@ -5768,10 +5892,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="48" t="s">
         <v>311</v>
       </c>
       <c r="C127" s="30" t="s">
@@ -5782,8 +5906,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="37"/>
-      <c r="B128" s="41"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="48"/>
       <c r="C128" s="30" t="s">
         <v>330</v>
       </c>
@@ -5792,8 +5916,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A129" s="37"/>
-      <c r="B129" s="41"/>
+      <c r="A129" s="44"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="30" t="s">
         <v>365</v>
       </c>
@@ -5802,8 +5926,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="37"/>
-      <c r="B130" s="41"/>
+      <c r="A130" s="44"/>
+      <c r="B130" s="48"/>
       <c r="C130" s="30" t="s">
         <v>348</v>
       </c>
@@ -5812,8 +5936,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A131" s="37"/>
-      <c r="B131" s="41"/>
+      <c r="A131" s="44"/>
+      <c r="B131" s="48"/>
       <c r="C131" s="30" t="s">
         <v>374</v>
       </c>
@@ -5822,8 +5946,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A132" s="37"/>
-      <c r="B132" s="41"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="48"/>
       <c r="C132" s="30" t="s">
         <v>372</v>
       </c>
@@ -5832,8 +5956,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A133" s="37"/>
-      <c r="B133" s="41"/>
+      <c r="A133" s="44"/>
+      <c r="B133" s="48"/>
       <c r="C133" s="30" t="s">
         <v>376</v>
       </c>
@@ -5842,10 +5966,10 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="41" t="s">
+      <c r="B135" s="48" t="s">
         <v>310</v>
       </c>
       <c r="C135" s="30" t="s">
@@ -5856,8 +5980,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="37"/>
-      <c r="B136" s="41"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="48"/>
       <c r="C136" s="30" t="s">
         <v>330</v>
       </c>
@@ -5866,8 +5990,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A137" s="37"/>
-      <c r="B137" s="41"/>
+      <c r="A137" s="44"/>
+      <c r="B137" s="48"/>
       <c r="C137" s="30" t="s">
         <v>365</v>
       </c>
@@ -5876,8 +6000,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="37"/>
-      <c r="B138" s="41"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="48"/>
       <c r="C138" s="30" t="s">
         <v>348</v>
       </c>
@@ -5886,8 +6010,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A139" s="37"/>
-      <c r="B139" s="41"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="48"/>
       <c r="C139" s="30" t="s">
         <v>374</v>
       </c>
@@ -5896,8 +6020,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A140" s="37"/>
-      <c r="B140" s="41"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="48"/>
       <c r="C140" s="30" t="s">
         <v>372</v>
       </c>
@@ -5906,8 +6030,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A141" s="37"/>
-      <c r="B141" s="41"/>
+      <c r="A141" s="44"/>
+      <c r="B141" s="48"/>
       <c r="C141" s="30" t="s">
         <v>370</v>
       </c>
@@ -5916,10 +6040,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A143" s="37" t="s">
+      <c r="A143" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="41" t="s">
+      <c r="B143" s="48" t="s">
         <v>312</v>
       </c>
       <c r="C143" s="30" t="s">
@@ -5930,8 +6054,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="37"/>
-      <c r="B144" s="41"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="48"/>
       <c r="C144" s="30" t="s">
         <v>330</v>
       </c>
@@ -5940,8 +6064,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A145" s="37"/>
-      <c r="B145" s="41"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="48"/>
       <c r="C145" s="30" t="s">
         <v>365</v>
       </c>
@@ -5950,8 +6074,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A146" s="37"/>
-      <c r="B146" s="41"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="48"/>
       <c r="C146" s="30" t="s">
         <v>369</v>
       </c>
@@ -5960,8 +6084,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A147" s="37"/>
-      <c r="B147" s="41"/>
+      <c r="A147" s="44"/>
+      <c r="B147" s="48"/>
       <c r="C147" s="30" t="s">
         <v>368</v>
       </c>
@@ -5970,8 +6094,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A148" s="37"/>
-      <c r="B148" s="41"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="48"/>
       <c r="C148" s="30" t="s">
         <v>367</v>
       </c>
@@ -5980,10 +6104,10 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="37" t="s">
+      <c r="A150" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B150" s="41" t="s">
+      <c r="B150" s="48" t="s">
         <v>313</v>
       </c>
       <c r="C150" s="30" t="s">
@@ -5994,8 +6118,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A151" s="37"/>
-      <c r="B151" s="41"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="48"/>
       <c r="C151" s="30" t="s">
         <v>330</v>
       </c>
@@ -6004,8 +6128,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A152" s="37"/>
-      <c r="B152" s="41"/>
+      <c r="A152" s="44"/>
+      <c r="B152" s="48"/>
       <c r="C152" s="30" t="s">
         <v>365</v>
       </c>
@@ -6014,8 +6138,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A153" s="37"/>
-      <c r="B153" s="41"/>
+      <c r="A153" s="44"/>
+      <c r="B153" s="48"/>
       <c r="C153" s="30" t="s">
         <v>363</v>
       </c>
@@ -6024,10 +6148,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B155" s="41" t="s">
+      <c r="B155" s="48" t="s">
         <v>315</v>
       </c>
       <c r="C155" s="30" t="s">
@@ -6038,8 +6162,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="37"/>
-      <c r="B156" s="41"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="48"/>
       <c r="C156" s="30" t="s">
         <v>361</v>
       </c>
@@ -6048,8 +6172,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="37"/>
-      <c r="B157" s="41"/>
+      <c r="A157" s="44"/>
+      <c r="B157" s="48"/>
       <c r="C157" s="30" t="s">
         <v>353</v>
       </c>
@@ -6058,10 +6182,10 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="48" t="s">
         <v>316</v>
       </c>
       <c r="C159" s="30" t="s">
@@ -6072,8 +6196,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A160" s="37"/>
-      <c r="B160" s="41"/>
+      <c r="A160" s="44"/>
+      <c r="B160" s="48"/>
       <c r="C160" s="30" t="s">
         <v>330</v>
       </c>
@@ -6082,8 +6206,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A161" s="37"/>
-      <c r="B161" s="41"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="48"/>
       <c r="C161" s="30" t="s">
         <v>353</v>
       </c>
@@ -6092,8 +6216,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A162" s="37"/>
-      <c r="B162" s="41"/>
+      <c r="A162" s="44"/>
+      <c r="B162" s="48"/>
       <c r="C162" s="30" t="s">
         <v>348</v>
       </c>
@@ -6102,8 +6226,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="37"/>
-      <c r="B163" s="41"/>
+      <c r="A163" s="44"/>
+      <c r="B163" s="48"/>
       <c r="C163" s="30" t="s">
         <v>360</v>
       </c>
@@ -6112,8 +6236,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A164" s="37"/>
-      <c r="B164" s="41"/>
+      <c r="A164" s="44"/>
+      <c r="B164" s="48"/>
       <c r="C164" s="30" t="s">
         <v>359</v>
       </c>
@@ -6122,10 +6246,10 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A166" s="37" t="s">
+      <c r="A166" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B166" s="41" t="s">
+      <c r="B166" s="48" t="s">
         <v>317</v>
       </c>
       <c r="C166" s="30" t="s">
@@ -6136,8 +6260,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="37"/>
-      <c r="B167" s="41"/>
+      <c r="A167" s="44"/>
+      <c r="B167" s="48"/>
       <c r="C167" s="30" t="s">
         <v>330</v>
       </c>
@@ -6146,8 +6270,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="37"/>
-      <c r="B168" s="41"/>
+      <c r="A168" s="44"/>
+      <c r="B168" s="48"/>
       <c r="C168" s="30" t="s">
         <v>353</v>
       </c>
@@ -6156,8 +6280,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A169" s="37"/>
-      <c r="B169" s="41"/>
+      <c r="A169" s="44"/>
+      <c r="B169" s="48"/>
       <c r="C169" s="30" t="s">
         <v>341</v>
       </c>
@@ -6166,10 +6290,10 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A171" s="37" t="s">
+      <c r="A171" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="B171" s="41" t="s">
+      <c r="B171" s="48" t="s">
         <v>318</v>
       </c>
       <c r="C171" s="30" t="s">
@@ -6180,8 +6304,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A172" s="37"/>
-      <c r="B172" s="41"/>
+      <c r="A172" s="44"/>
+      <c r="B172" s="48"/>
       <c r="C172" s="30" t="s">
         <v>330</v>
       </c>
@@ -6190,8 +6314,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A173" s="37"/>
-      <c r="B173" s="41"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="48"/>
       <c r="C173" s="30" t="s">
         <v>353</v>
       </c>
@@ -6200,8 +6324,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A174" s="37"/>
-      <c r="B174" s="41"/>
+      <c r="A174" s="44"/>
+      <c r="B174" s="48"/>
       <c r="C174" s="30" t="s">
         <v>338</v>
       </c>
@@ -6210,8 +6334,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A175" s="37"/>
-      <c r="B175" s="41"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="48"/>
       <c r="C175" s="30" t="s">
         <v>336</v>
       </c>
@@ -6220,8 +6344,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A176" s="37"/>
-      <c r="B176" s="41"/>
+      <c r="A176" s="44"/>
+      <c r="B176" s="48"/>
       <c r="C176" s="30" t="s">
         <v>334</v>
       </c>
@@ -6230,10 +6354,10 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A178" s="37" t="s">
+      <c r="A178" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="41" t="s">
+      <c r="B178" s="48" t="s">
         <v>319</v>
       </c>
       <c r="C178" s="30" t="s">
@@ -6244,8 +6368,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A179" s="37"/>
-      <c r="B179" s="41"/>
+      <c r="A179" s="44"/>
+      <c r="B179" s="48"/>
       <c r="C179" s="30" t="s">
         <v>330</v>
       </c>
@@ -6254,8 +6378,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A180" s="37"/>
-      <c r="B180" s="41"/>
+      <c r="A180" s="44"/>
+      <c r="B180" s="48"/>
       <c r="C180" s="30" t="s">
         <v>353</v>
       </c>
@@ -6264,8 +6388,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A181" s="37"/>
-      <c r="B181" s="41"/>
+      <c r="A181" s="44"/>
+      <c r="B181" s="48"/>
       <c r="C181" s="30" t="s">
         <v>351</v>
       </c>
@@ -6274,10 +6398,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="B183" s="41" t="s">
+      <c r="B183" s="48" t="s">
         <v>321</v>
       </c>
       <c r="C183" s="30" t="s">
@@ -6288,8 +6412,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A184" s="37"/>
-      <c r="B184" s="41"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="48"/>
       <c r="C184" s="30" t="s">
         <v>330</v>
       </c>
@@ -6298,8 +6422,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="37"/>
-      <c r="B185" s="41"/>
+      <c r="A185" s="44"/>
+      <c r="B185" s="48"/>
       <c r="C185" s="30" t="s">
         <v>329</v>
       </c>
@@ -6308,10 +6432,10 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A186" s="37" t="s">
+      <c r="A186" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B186" s="41" t="s">
+      <c r="B186" s="48" t="s">
         <v>322</v>
       </c>
       <c r="C186" s="30" t="s">
@@ -6322,8 +6446,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A187" s="37"/>
-      <c r="B187" s="41"/>
+      <c r="A187" s="44"/>
+      <c r="B187" s="48"/>
       <c r="C187" s="30" t="s">
         <v>330</v>
       </c>
@@ -6332,8 +6456,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A188" s="37"/>
-      <c r="B188" s="41"/>
+      <c r="A188" s="44"/>
+      <c r="B188" s="48"/>
       <c r="C188" s="30" t="s">
         <v>329</v>
       </c>
@@ -6342,8 +6466,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A189" s="37"/>
-      <c r="B189" s="41"/>
+      <c r="A189" s="44"/>
+      <c r="B189" s="48"/>
       <c r="C189" s="30" t="s">
         <v>348</v>
       </c>
@@ -6352,8 +6476,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A190" s="37"/>
-      <c r="B190" s="41"/>
+      <c r="A190" s="44"/>
+      <c r="B190" s="48"/>
       <c r="C190" s="30" t="s">
         <v>346</v>
       </c>
@@ -6362,8 +6486,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A191" s="37"/>
-      <c r="B191" s="41"/>
+      <c r="A191" s="44"/>
+      <c r="B191" s="48"/>
       <c r="C191" s="30" t="s">
         <v>344</v>
       </c>
@@ -6372,10 +6496,10 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A193" s="37" t="s">
+      <c r="A193" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="B193" s="41" t="s">
+      <c r="B193" s="48" t="s">
         <v>323</v>
       </c>
       <c r="C193" s="30" t="s">
@@ -6386,8 +6510,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A194" s="37"/>
-      <c r="B194" s="41"/>
+      <c r="A194" s="44"/>
+      <c r="B194" s="48"/>
       <c r="C194" s="30" t="s">
         <v>330</v>
       </c>
@@ -6396,8 +6520,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A195" s="37"/>
-      <c r="B195" s="41"/>
+      <c r="A195" s="44"/>
+      <c r="B195" s="48"/>
       <c r="C195" s="30" t="s">
         <v>329</v>
       </c>
@@ -6406,8 +6530,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A196" s="37"/>
-      <c r="B196" s="41"/>
+      <c r="A196" s="44"/>
+      <c r="B196" s="48"/>
       <c r="C196" s="30" t="s">
         <v>341</v>
       </c>
@@ -6416,10 +6540,10 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A198" s="37" t="s">
+      <c r="A198" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="B198" s="41" t="s">
+      <c r="B198" s="48" t="s">
         <v>324</v>
       </c>
       <c r="C198" s="30" t="s">
@@ -6430,8 +6554,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A199" s="37"/>
-      <c r="B199" s="41"/>
+      <c r="A199" s="44"/>
+      <c r="B199" s="48"/>
       <c r="C199" s="30" t="s">
         <v>330</v>
       </c>
@@ -6440,8 +6564,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A200" s="37"/>
-      <c r="B200" s="41"/>
+      <c r="A200" s="44"/>
+      <c r="B200" s="48"/>
       <c r="C200" s="30" t="s">
         <v>329</v>
       </c>
@@ -6450,8 +6574,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A201" s="37"/>
-      <c r="B201" s="41"/>
+      <c r="A201" s="44"/>
+      <c r="B201" s="48"/>
       <c r="C201" s="30" t="s">
         <v>338</v>
       </c>
@@ -6460,8 +6584,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A202" s="37"/>
-      <c r="B202" s="41"/>
+      <c r="A202" s="44"/>
+      <c r="B202" s="48"/>
       <c r="C202" s="30" t="s">
         <v>336</v>
       </c>
@@ -6470,8 +6594,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A203" s="37"/>
-      <c r="B203" s="41"/>
+      <c r="A203" s="44"/>
+      <c r="B203" s="48"/>
       <c r="C203" s="30" t="s">
         <v>334</v>
       </c>
@@ -6480,10 +6604,10 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="37" t="s">
+      <c r="A204" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="B204" s="41" t="s">
+      <c r="B204" s="48" t="s">
         <v>325</v>
       </c>
       <c r="C204" s="30" t="s">
@@ -6494,8 +6618,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A205" s="37"/>
-      <c r="B205" s="41"/>
+      <c r="A205" s="44"/>
+      <c r="B205" s="48"/>
       <c r="C205" s="30" t="s">
         <v>330</v>
       </c>
@@ -6504,8 +6628,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A206" s="37"/>
-      <c r="B206" s="41"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="48"/>
       <c r="C206" s="30" t="s">
         <v>329</v>
       </c>
@@ -6514,8 +6638,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A207" s="37"/>
-      <c r="B207" s="41"/>
+      <c r="A207" s="44"/>
+      <c r="B207" s="48"/>
       <c r="C207" s="30" t="s">
         <v>327</v>
       </c>
@@ -6525,24 +6649,42 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="B183:B185"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B119:B122"/>
@@ -6559,46 +6701,28 @@
     <mergeCell ref="A105:A110"/>
     <mergeCell ref="B105:B110"/>
     <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A45:A48"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6607,10 +6731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED05F38-601D-45C1-B25E-6DB85E06526B}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6640,225 +6764,215 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="37" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="44" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="37" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="37" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="44" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="37" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="37" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="37" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="37" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="38" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="42" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="37" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="44" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="44" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="39" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="44" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="39" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="44" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="39" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="39" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="37" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="44" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="39" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="39" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="36" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="49" t="s">
+    <row r="23" spans="1:4" ht="45.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D23" s="36" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6868,8 +6982,8 @@
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B12:B20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6880,7 +6994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DF5CBC-D881-4D83-AED9-C2DE58D571B1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -6907,32 +7021,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="36" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="36" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6949,18 +7063,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9CA3CB-6959-4755-AF7C-E9808B2F5869}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.46484375" customWidth="1"/>
     <col min="2" max="2" width="21.53125" customWidth="1"/>
-    <col min="3" max="3" width="26.06640625" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.1328125" customWidth="1"/>
+    <col min="4" max="4" width="71.9296875" customWidth="1"/>
     <col min="5" max="5" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6981,12 +7095,147 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>494</v>
       </c>
+      <c r="B2" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>460</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7540,7 +7789,7 @@
   <dimension ref="A1:Z510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7600,10 +7849,10 @@
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -7614,8 +7863,8 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="24" t="s">
         <v>98</v>
       </c>
@@ -7624,18 +7873,18 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="23" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="24" t="s">
         <v>146</v>
       </c>
@@ -7647,10 +7896,10 @@
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="48" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -7661,8 +7910,8 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="24" t="s">
         <v>98</v>
       </c>
@@ -7671,8 +7920,8 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="23" t="s">
         <v>446</v>
       </c>
@@ -7681,8 +7930,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="24" t="s">
         <v>146</v>
       </c>
@@ -7691,8 +7940,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23" t="s">
         <v>102</v>
       </c>
@@ -7701,8 +7950,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="23" t="s">
         <v>103</v>
       </c>
@@ -7711,10 +7960,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -7725,8 +7974,8 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="24" t="s">
         <v>98</v>
       </c>
@@ -7735,8 +7984,8 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="23" t="s">
         <v>446</v>
       </c>
@@ -7745,8 +7994,8 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="24" t="s">
         <v>146</v>
       </c>
@@ -7755,8 +8004,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="23" t="s">
         <v>102</v>
       </c>
@@ -7765,8 +8014,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="23" t="s">
         <v>124</v>
       </c>
@@ -7779,10 +8028,10 @@
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="43" t="s">
         <v>120</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -7793,8 +8042,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="24" t="s">
         <v>98</v>
       </c>
@@ -7803,8 +8052,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="23" t="s">
         <v>446</v>
       </c>
@@ -7813,8 +8062,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="24" t="s">
         <v>146</v>
       </c>
@@ -7823,8 +8072,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="23" t="s">
         <v>102</v>
       </c>
@@ -7833,8 +8082,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="23" t="s">
         <v>127</v>
       </c>
@@ -7847,10 +8096,10 @@
       <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -7861,8 +8110,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="24" t="s">
         <v>98</v>
       </c>
@@ -7871,8 +8120,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="23" t="s">
         <v>446</v>
       </c>
@@ -7881,8 +8130,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="24" t="s">
         <v>146</v>
       </c>
@@ -7891,8 +8140,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="23" t="s">
         <v>109</v>
       </c>
@@ -7901,8 +8150,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="23" t="s">
         <v>111</v>
       </c>
@@ -7916,10 +8165,10 @@
       <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -7930,8 +8179,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="24" t="s">
         <v>98</v>
       </c>
@@ -7940,8 +8189,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="23" t="s">
         <v>446</v>
       </c>
@@ -7950,8 +8199,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="24" t="s">
         <v>146</v>
       </c>
@@ -7960,8 +8209,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="23" t="s">
         <v>109</v>
       </c>
@@ -7970,8 +8219,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="23" t="s">
         <v>131</v>
       </c>
@@ -7985,10 +8234,10 @@
       <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="43" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -7999,8 +8248,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="24" t="s">
         <v>98</v>
       </c>
@@ -8009,8 +8258,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="23" t="s">
         <v>446</v>
       </c>
@@ -8019,8 +8268,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="24" t="s">
         <v>146</v>
       </c>
@@ -8029,8 +8278,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="23" t="s">
         <v>109</v>
       </c>
@@ -8039,8 +8288,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="23" t="s">
         <v>129</v>
       </c>
@@ -8049,10 +8298,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="48" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="23" t="s">
@@ -8063,8 +8312,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="24" t="s">
         <v>98</v>
       </c>
@@ -8073,8 +8322,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="23" t="s">
         <v>446</v>
       </c>
@@ -8083,8 +8332,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="24" t="s">
         <v>146</v>
       </c>
@@ -8113,10 +8362,10 @@
       <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="43" t="s">
         <v>122</v>
       </c>
       <c r="C55" s="23" t="s">
@@ -8127,8 +8376,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="24" t="s">
         <v>98</v>
       </c>
@@ -8137,8 +8386,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="23" t="s">
         <v>446</v>
       </c>
@@ -8147,8 +8396,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="24" t="s">
         <v>146</v>
       </c>
@@ -8157,8 +8406,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="24" t="s">
         <v>114</v>
       </c>
@@ -8167,8 +8416,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="24" t="s">
         <v>133</v>
       </c>
@@ -8181,10 +8430,10 @@
       <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="43" t="s">
         <v>105</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -8195,8 +8444,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A63" s="37"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="24" t="s">
         <v>98</v>
       </c>
@@ -8205,8 +8454,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="37"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="23" t="s">
         <v>446</v>
       </c>
@@ -8215,8 +8464,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="24" t="s">
         <v>146</v>
       </c>
@@ -8225,8 +8474,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="24" t="s">
         <v>114</v>
       </c>
@@ -8235,8 +8484,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="24" t="s">
         <v>115</v>
       </c>
@@ -8245,8 +8494,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A68" s="37"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="23" t="s">
         <v>118</v>
       </c>
@@ -8255,8 +8504,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A69" s="37"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="23" t="s">
         <v>119</v>
       </c>
@@ -8270,10 +8519,10 @@
       <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="43" t="s">
         <v>123</v>
       </c>
       <c r="C71" s="23" t="s">
@@ -8284,8 +8533,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="24" t="s">
         <v>98</v>
       </c>
@@ -8294,8 +8543,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="36"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="23" t="s">
         <v>446</v>
       </c>
@@ -8304,8 +8553,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="24" t="s">
         <v>146</v>
       </c>
@@ -8314,8 +8563,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="24" t="s">
         <v>114</v>
       </c>
@@ -8324,8 +8573,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="24" t="s">
         <v>115</v>
       </c>
@@ -8334,8 +8583,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A77" s="37"/>
-      <c r="B77" s="36"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="23" t="s">
         <v>118</v>
       </c>
@@ -8344,8 +8593,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A78" s="37"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="23" t="s">
         <v>136</v>
       </c>
@@ -8354,10 +8603,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C80" s="23" t="s">
@@ -8368,8 +8617,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="24" t="s">
         <v>98</v>
       </c>
@@ -8378,8 +8627,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="37"/>
-      <c r="B82" s="36"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="23" t="s">
         <v>446</v>
       </c>
@@ -8388,8 +8637,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
-      <c r="B83" s="36"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="24" t="s">
         <v>146</v>
       </c>
@@ -8398,8 +8647,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A84" s="37"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="23" t="s">
         <v>138</v>
       </c>
@@ -8408,8 +8657,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A85" s="37"/>
-      <c r="B85" s="36"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="23" t="s">
         <v>140</v>
       </c>
@@ -8423,10 +8672,10 @@
       <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C87" s="23" t="s">
@@ -8437,8 +8686,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="36"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="24" t="s">
         <v>98</v>
       </c>
@@ -8447,8 +8696,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="37"/>
-      <c r="B89" s="36"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="23" t="s">
         <v>446</v>
       </c>
@@ -8457,8 +8706,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A90" s="37"/>
-      <c r="B90" s="36"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="24" t="s">
         <v>146</v>
       </c>
@@ -8467,8 +8716,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A91" s="37"/>
-      <c r="B91" s="36"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="23" t="s">
         <v>138</v>
       </c>
@@ -8477,8 +8726,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="36"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="23" t="s">
         <v>140</v>
       </c>
@@ -8487,8 +8736,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="23" t="s">
         <v>200</v>
       </c>
@@ -8502,10 +8751,10 @@
       <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C95" s="23" t="s">
@@ -8516,8 +8765,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="36"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="24" t="s">
         <v>98</v>
       </c>
@@ -8526,8 +8775,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="36"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="23" t="s">
         <v>446</v>
       </c>
@@ -8536,8 +8785,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="36"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="24" t="s">
         <v>146</v>
       </c>
@@ -8546,8 +8795,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="23" t="s">
         <v>138</v>
       </c>
@@ -8556,8 +8805,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="36"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="23" t="s">
         <v>145</v>
       </c>
@@ -8571,10 +8820,10 @@
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="43" t="s">
         <v>147</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -8585,8 +8834,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="36"/>
+      <c r="A103" s="44"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="24" t="s">
         <v>98</v>
       </c>
@@ -8595,8 +8844,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="37"/>
-      <c r="B104" s="36"/>
+      <c r="A104" s="44"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="23" t="s">
         <v>446</v>
       </c>
@@ -8605,8 +8854,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A105" s="37"/>
-      <c r="B105" s="36"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="24" t="s">
         <v>146</v>
       </c>
@@ -8615,8 +8864,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="36"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="23" t="s">
         <v>153</v>
       </c>
@@ -8629,10 +8878,10 @@
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -8643,8 +8892,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A109" s="37"/>
-      <c r="B109" s="36"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="24" t="s">
         <v>98</v>
       </c>
@@ -8653,8 +8902,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="37"/>
-      <c r="B110" s="36"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="23" t="s">
         <v>446</v>
       </c>
@@ -8663,8 +8912,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A111" s="37"/>
-      <c r="B111" s="36"/>
+      <c r="A111" s="44"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="24" t="s">
         <v>146</v>
       </c>
@@ -8673,8 +8922,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A112" s="37"/>
-      <c r="B112" s="36"/>
+      <c r="A112" s="44"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="23" t="s">
         <v>154</v>
       </c>
@@ -8688,10 +8937,10 @@
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="43" t="s">
         <v>179</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -8702,8 +8951,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A115" s="37"/>
-      <c r="B115" s="36"/>
+      <c r="A115" s="44"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="24" t="s">
         <v>98</v>
       </c>
@@ -8712,8 +8961,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="37"/>
-      <c r="B116" s="36"/>
+      <c r="A116" s="44"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="23" t="s">
         <v>446</v>
       </c>
@@ -8722,8 +8971,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A117" s="37"/>
-      <c r="B117" s="36"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="24" t="s">
         <v>146</v>
       </c>
@@ -8732,8 +8981,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A118" s="37"/>
-      <c r="B118" s="36"/>
+      <c r="A118" s="44"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="23" t="s">
         <v>155</v>
       </c>
@@ -8747,10 +8996,10 @@
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="36" t="s">
+      <c r="B120" s="43" t="s">
         <v>180</v>
       </c>
       <c r="C120" s="23" t="s">
@@ -8761,8 +9010,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A121" s="37"/>
-      <c r="B121" s="36"/>
+      <c r="A121" s="44"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="24" t="s">
         <v>98</v>
       </c>
@@ -8771,8 +9020,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="37"/>
-      <c r="B122" s="36"/>
+      <c r="A122" s="44"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="23" t="s">
         <v>446</v>
       </c>
@@ -8781,8 +9030,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A123" s="37"/>
-      <c r="B123" s="36"/>
+      <c r="A123" s="44"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="24" t="s">
         <v>146</v>
       </c>
@@ -8791,8 +9040,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A124" s="37"/>
-      <c r="B124" s="36"/>
+      <c r="A124" s="44"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="23" t="s">
         <v>156</v>
       </c>
@@ -8806,10 +9055,10 @@
       <c r="D125" s="18"/>
     </row>
     <row r="126" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="37" t="s">
+      <c r="A126" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="43" t="s">
         <v>159</v>
       </c>
       <c r="C126" s="23" t="s">
@@ -8820,8 +9069,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A127" s="37"/>
-      <c r="B127" s="36"/>
+      <c r="A127" s="44"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="24" t="s">
         <v>98</v>
       </c>
@@ -8830,8 +9079,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="37"/>
-      <c r="B128" s="36"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="23" t="s">
         <v>446</v>
       </c>
@@ -8840,8 +9089,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A129" s="37"/>
-      <c r="B129" s="36"/>
+      <c r="A129" s="44"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="24" t="s">
         <v>146</v>
       </c>
@@ -8850,8 +9099,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="37"/>
-      <c r="B130" s="36"/>
+      <c r="A130" s="44"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="24" t="s">
         <v>157</v>
       </c>
@@ -8865,10 +9114,10 @@
       <c r="D131" s="18"/>
     </row>
     <row r="132" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B132" s="36" t="s">
+      <c r="B132" s="43" t="s">
         <v>160</v>
       </c>
       <c r="C132" s="23" t="s">
@@ -8879,8 +9128,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A133" s="37"/>
-      <c r="B133" s="36"/>
+      <c r="A133" s="44"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="24" t="s">
         <v>98</v>
       </c>
@@ -8889,8 +9138,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="37"/>
-      <c r="B134" s="36"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="23" t="s">
         <v>446</v>
       </c>
@@ -8899,8 +9148,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A135" s="37"/>
-      <c r="B135" s="36"/>
+      <c r="A135" s="44"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="24" t="s">
         <v>146</v>
       </c>
@@ -8909,8 +9158,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="37"/>
-      <c r="B136" s="36"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="24" t="s">
         <v>161</v>
       </c>
@@ -8924,10 +9173,10 @@
       <c r="D137" s="18"/>
     </row>
     <row r="138" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="37" t="s">
+      <c r="A138" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B138" s="36" t="s">
+      <c r="B138" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C138" s="23" t="s">
@@ -8938,8 +9187,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A139" s="37"/>
-      <c r="B139" s="36"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="24" t="s">
         <v>98</v>
       </c>
@@ -8948,8 +9197,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="37"/>
-      <c r="B140" s="36"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="23" t="s">
         <v>446</v>
       </c>
@@ -8958,8 +9207,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A141" s="37"/>
-      <c r="B141" s="36"/>
+      <c r="A141" s="44"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="24" t="s">
         <v>146</v>
       </c>
@@ -8968,8 +9217,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A142" s="37"/>
-      <c r="B142" s="36"/>
+      <c r="A142" s="44"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="24" t="s">
         <v>163</v>
       </c>
@@ -8983,10 +9232,10 @@
       <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="37" t="s">
+      <c r="A144" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B144" s="36" t="s">
+      <c r="B144" s="43" t="s">
         <v>165</v>
       </c>
       <c r="C144" s="23" t="s">
@@ -8997,8 +9246,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A145" s="37"/>
-      <c r="B145" s="36"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="24" t="s">
         <v>98</v>
       </c>
@@ -9007,8 +9256,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A146" s="37"/>
-      <c r="B146" s="36"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="23" t="s">
         <v>446</v>
       </c>
@@ -9017,8 +9266,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A147" s="37"/>
-      <c r="B147" s="36"/>
+      <c r="A147" s="44"/>
+      <c r="B147" s="43"/>
       <c r="C147" s="24" t="s">
         <v>146</v>
       </c>
@@ -9027,8 +9276,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A148" s="37"/>
-      <c r="B148" s="36"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="43"/>
       <c r="C148" s="24" t="s">
         <v>166</v>
       </c>
@@ -9043,10 +9292,10 @@
       <c r="D149" s="18"/>
     </row>
     <row r="150" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="37" t="s">
+      <c r="A150" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B150" s="36" t="s">
+      <c r="B150" s="43" t="s">
         <v>75</v>
       </c>
       <c r="C150" s="23" t="s">
@@ -9057,8 +9306,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A151" s="37"/>
-      <c r="B151" s="36"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="24" t="s">
         <v>98</v>
       </c>
@@ -9067,8 +9316,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A152" s="37"/>
-      <c r="B152" s="36"/>
+      <c r="A152" s="44"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="23" t="s">
         <v>446</v>
       </c>
@@ -9077,8 +9326,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A153" s="37"/>
-      <c r="B153" s="36"/>
+      <c r="A153" s="44"/>
+      <c r="B153" s="43"/>
       <c r="C153" s="24" t="s">
         <v>146</v>
       </c>
@@ -9087,8 +9336,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A154" s="37"/>
-      <c r="B154" s="36"/>
+      <c r="A154" s="44"/>
+      <c r="B154" s="43"/>
       <c r="C154" s="24" t="s">
         <v>168</v>
       </c>
@@ -9103,10 +9352,10 @@
       <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="37" t="s">
+      <c r="A156" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C156" s="23" t="s">
@@ -9117,8 +9366,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A157" s="37"/>
-      <c r="B157" s="36"/>
+      <c r="A157" s="44"/>
+      <c r="B157" s="43"/>
       <c r="C157" s="24" t="s">
         <v>98</v>
       </c>
@@ -9127,8 +9376,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A158" s="37"/>
-      <c r="B158" s="36"/>
+      <c r="A158" s="44"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="23" t="s">
         <v>446</v>
       </c>
@@ -9137,8 +9386,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A159" s="37"/>
-      <c r="B159" s="36"/>
+      <c r="A159" s="44"/>
+      <c r="B159" s="43"/>
       <c r="C159" s="24" t="s">
         <v>146</v>
       </c>
@@ -9147,8 +9396,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A160" s="37"/>
-      <c r="B160" s="36"/>
+      <c r="A160" s="44"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="24" t="s">
         <v>170</v>
       </c>
@@ -9163,10 +9412,10 @@
       <c r="D161" s="18"/>
     </row>
     <row r="162" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A162" s="37" t="s">
+      <c r="A162" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B162" s="36" t="s">
+      <c r="B162" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C162" s="23" t="s">
@@ -9177,8 +9426,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A163" s="37"/>
-      <c r="B163" s="36"/>
+      <c r="A163" s="44"/>
+      <c r="B163" s="43"/>
       <c r="C163" s="24" t="s">
         <v>98</v>
       </c>
@@ -9187,8 +9436,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A164" s="37"/>
-      <c r="B164" s="36"/>
+      <c r="A164" s="44"/>
+      <c r="B164" s="43"/>
       <c r="C164" s="23" t="s">
         <v>446</v>
       </c>
@@ -9197,8 +9446,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A165" s="37"/>
-      <c r="B165" s="36"/>
+      <c r="A165" s="44"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="24" t="s">
         <v>146</v>
       </c>
@@ -9207,8 +9456,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A166" s="37"/>
-      <c r="B166" s="36"/>
+      <c r="A166" s="44"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="24" t="s">
         <v>170</v>
       </c>
@@ -9217,8 +9466,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A167" s="37"/>
-      <c r="B167" s="36"/>
+      <c r="A167" s="44"/>
+      <c r="B167" s="43"/>
       <c r="C167" s="24" t="s">
         <v>172</v>
       </c>
@@ -9233,10 +9482,10 @@
       <c r="D168" s="18"/>
     </row>
     <row r="169" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="B169" s="36" t="s">
+      <c r="B169" s="43" t="s">
         <v>78</v>
       </c>
       <c r="C169" s="23" t="s">
@@ -9247,8 +9496,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A170" s="37"/>
-      <c r="B170" s="36"/>
+      <c r="A170" s="44"/>
+      <c r="B170" s="43"/>
       <c r="C170" s="24" t="s">
         <v>98</v>
       </c>
@@ -9257,8 +9506,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A171" s="37"/>
-      <c r="B171" s="36"/>
+      <c r="A171" s="44"/>
+      <c r="B171" s="43"/>
       <c r="C171" s="23" t="s">
         <v>446</v>
       </c>
@@ -9267,8 +9516,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A172" s="37"/>
-      <c r="B172" s="36"/>
+      <c r="A172" s="44"/>
+      <c r="B172" s="43"/>
       <c r="C172" s="24" t="s">
         <v>146</v>
       </c>
@@ -9277,8 +9526,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A173" s="37"/>
-      <c r="B173" s="36"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="43"/>
       <c r="C173" s="24" t="s">
         <v>170</v>
       </c>
@@ -9287,8 +9536,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A174" s="37"/>
-      <c r="B174" s="36"/>
+      <c r="A174" s="44"/>
+      <c r="B174" s="43"/>
       <c r="C174" s="24" t="s">
         <v>174</v>
       </c>
@@ -9303,10 +9552,10 @@
       <c r="D175" s="18"/>
     </row>
     <row r="176" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B176" s="36" t="s">
+      <c r="B176" s="43" t="s">
         <v>79</v>
       </c>
       <c r="C176" s="23" t="s">
@@ -9317,8 +9566,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A177" s="37"/>
-      <c r="B177" s="36"/>
+      <c r="A177" s="44"/>
+      <c r="B177" s="43"/>
       <c r="C177" s="24" t="s">
         <v>98</v>
       </c>
@@ -9327,8 +9576,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A178" s="37"/>
-      <c r="B178" s="36"/>
+      <c r="A178" s="44"/>
+      <c r="B178" s="43"/>
       <c r="C178" s="23" t="s">
         <v>446</v>
       </c>
@@ -9337,8 +9586,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A179" s="37"/>
-      <c r="B179" s="36"/>
+      <c r="A179" s="44"/>
+      <c r="B179" s="43"/>
       <c r="C179" s="24" t="s">
         <v>146</v>
       </c>
@@ -9347,8 +9596,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A180" s="37"/>
-      <c r="B180" s="36"/>
+      <c r="A180" s="44"/>
+      <c r="B180" s="43"/>
       <c r="C180" s="24" t="s">
         <v>170</v>
       </c>
@@ -9357,8 +9606,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A181" s="37"/>
-      <c r="B181" s="36"/>
+      <c r="A181" s="44"/>
+      <c r="B181" s="43"/>
       <c r="C181" s="24" t="s">
         <v>183</v>
       </c>
@@ -9373,10 +9622,10 @@
       <c r="D182" s="18"/>
     </row>
     <row r="183" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="36" t="s">
+      <c r="B183" s="43" t="s">
         <v>80</v>
       </c>
       <c r="C183" s="23" t="s">
@@ -9387,8 +9636,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A184" s="37"/>
-      <c r="B184" s="36"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="43"/>
       <c r="C184" s="24" t="s">
         <v>98</v>
       </c>
@@ -9397,8 +9646,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="37"/>
-      <c r="B185" s="36"/>
+      <c r="A185" s="44"/>
+      <c r="B185" s="43"/>
       <c r="C185" s="23" t="s">
         <v>446</v>
       </c>
@@ -9407,8 +9656,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A186" s="37"/>
-      <c r="B186" s="36"/>
+      <c r="A186" s="44"/>
+      <c r="B186" s="43"/>
       <c r="C186" s="24" t="s">
         <v>146</v>
       </c>
@@ -9417,8 +9666,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A187" s="37"/>
-      <c r="B187" s="36"/>
+      <c r="A187" s="44"/>
+      <c r="B187" s="43"/>
       <c r="C187" s="24" t="s">
         <v>170</v>
       </c>
@@ -9427,8 +9676,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A188" s="37"/>
-      <c r="B188" s="36"/>
+      <c r="A188" s="44"/>
+      <c r="B188" s="43"/>
       <c r="C188" s="24" t="s">
         <v>185</v>
       </c>
@@ -9443,10 +9692,10 @@
       <c r="D189" s="18"/>
     </row>
     <row r="190" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A190" s="37" t="s">
+      <c r="A190" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B190" s="36" t="s">
+      <c r="B190" s="43" t="s">
         <v>81</v>
       </c>
       <c r="C190" s="23" t="s">
@@ -9457,8 +9706,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A191" s="37"/>
-      <c r="B191" s="36"/>
+      <c r="A191" s="44"/>
+      <c r="B191" s="43"/>
       <c r="C191" s="24" t="s">
         <v>98</v>
       </c>
@@ -9467,8 +9716,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A192" s="37"/>
-      <c r="B192" s="36"/>
+      <c r="A192" s="44"/>
+      <c r="B192" s="43"/>
       <c r="C192" s="23" t="s">
         <v>446</v>
       </c>
@@ -9477,8 +9726,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A193" s="37"/>
-      <c r="B193" s="36"/>
+      <c r="A193" s="44"/>
+      <c r="B193" s="43"/>
       <c r="C193" s="24" t="s">
         <v>146</v>
       </c>
@@ -9487,8 +9736,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A194" s="37"/>
-      <c r="B194" s="36"/>
+      <c r="A194" s="44"/>
+      <c r="B194" s="43"/>
       <c r="C194" s="24" t="s">
         <v>170</v>
       </c>
@@ -9497,8 +9746,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A195" s="37"/>
-      <c r="B195" s="36"/>
+      <c r="A195" s="44"/>
+      <c r="B195" s="43"/>
       <c r="C195" s="24" t="s">
         <v>187</v>
       </c>
@@ -9513,10 +9762,10 @@
       <c r="D196" s="18"/>
     </row>
     <row r="197" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A197" s="37" t="s">
+      <c r="A197" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B197" s="36" t="s">
+      <c r="B197" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C197" s="23" t="s">
@@ -9527,8 +9776,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A198" s="37"/>
-      <c r="B198" s="36"/>
+      <c r="A198" s="44"/>
+      <c r="B198" s="43"/>
       <c r="C198" s="24" t="s">
         <v>98</v>
       </c>
@@ -9537,8 +9786,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A199" s="37"/>
-      <c r="B199" s="36"/>
+      <c r="A199" s="44"/>
+      <c r="B199" s="43"/>
       <c r="C199" s="23" t="s">
         <v>446</v>
       </c>
@@ -9547,8 +9796,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A200" s="37"/>
-      <c r="B200" s="36"/>
+      <c r="A200" s="44"/>
+      <c r="B200" s="43"/>
       <c r="C200" s="24" t="s">
         <v>146</v>
       </c>
@@ -9557,8 +9806,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A201" s="37"/>
-      <c r="B201" s="36"/>
+      <c r="A201" s="44"/>
+      <c r="B201" s="43"/>
       <c r="C201" s="24" t="s">
         <v>170</v>
       </c>
@@ -9567,8 +9816,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A202" s="37"/>
-      <c r="B202" s="36"/>
+      <c r="A202" s="44"/>
+      <c r="B202" s="43"/>
       <c r="C202" s="24" t="s">
         <v>189</v>
       </c>
@@ -9583,10 +9832,10 @@
       <c r="D203" s="18"/>
     </row>
     <row r="204" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="37" t="s">
+      <c r="A204" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B204" s="36" t="s">
+      <c r="B204" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C204" s="23" t="s">
@@ -9597,8 +9846,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A205" s="37"/>
-      <c r="B205" s="36"/>
+      <c r="A205" s="44"/>
+      <c r="B205" s="43"/>
       <c r="C205" s="24" t="s">
         <v>98</v>
       </c>
@@ -9607,8 +9856,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A206" s="37"/>
-      <c r="B206" s="36"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="43"/>
       <c r="C206" s="23" t="s">
         <v>446</v>
       </c>
@@ -9617,8 +9866,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A207" s="37"/>
-      <c r="B207" s="36"/>
+      <c r="A207" s="44"/>
+      <c r="B207" s="43"/>
       <c r="C207" s="24" t="s">
         <v>146</v>
       </c>
@@ -9627,8 +9876,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="37"/>
-      <c r="B208" s="36"/>
+      <c r="A208" s="44"/>
+      <c r="B208" s="43"/>
       <c r="C208" s="23" t="s">
         <v>195</v>
       </c>
@@ -9643,10 +9892,10 @@
       <c r="D209" s="18"/>
     </row>
     <row r="210" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A210" s="37" t="s">
+      <c r="A210" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B210" s="36" t="s">
+      <c r="B210" s="43" t="s">
         <v>107</v>
       </c>
       <c r="C210" s="23" t="s">
@@ -9657,8 +9906,8 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A211" s="37"/>
-      <c r="B211" s="36"/>
+      <c r="A211" s="44"/>
+      <c r="B211" s="43"/>
       <c r="C211" s="24" t="s">
         <v>98</v>
       </c>
@@ -9667,8 +9916,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A212" s="37"/>
-      <c r="B212" s="36"/>
+      <c r="A212" s="44"/>
+      <c r="B212" s="43"/>
       <c r="C212" s="23" t="s">
         <v>446</v>
       </c>
@@ -9677,8 +9926,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A213" s="37"/>
-      <c r="B213" s="36"/>
+      <c r="A213" s="44"/>
+      <c r="B213" s="43"/>
       <c r="C213" s="24" t="s">
         <v>146</v>
       </c>
@@ -9687,8 +9936,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A214" s="37"/>
-      <c r="B214" s="36"/>
+      <c r="A214" s="44"/>
+      <c r="B214" s="43"/>
       <c r="C214" s="23" t="s">
         <v>195</v>
       </c>
@@ -9703,10 +9952,10 @@
       <c r="D215" s="18"/>
     </row>
     <row r="216" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A216" s="37" t="s">
+      <c r="A216" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B216" s="36" t="s">
+      <c r="B216" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C216" s="23" t="s">
@@ -9717,8 +9966,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A217" s="37"/>
-      <c r="B217" s="36"/>
+      <c r="A217" s="44"/>
+      <c r="B217" s="43"/>
       <c r="C217" s="24" t="s">
         <v>98</v>
       </c>
@@ -9727,8 +9976,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A218" s="37"/>
-      <c r="B218" s="36"/>
+      <c r="A218" s="44"/>
+      <c r="B218" s="43"/>
       <c r="C218" s="23" t="s">
         <v>446</v>
       </c>
@@ -9737,8 +9986,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A219" s="37"/>
-      <c r="B219" s="36"/>
+      <c r="A219" s="44"/>
+      <c r="B219" s="43"/>
       <c r="C219" s="24" t="s">
         <v>146</v>
       </c>
@@ -9747,8 +9996,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A220" s="37"/>
-      <c r="B220" s="36"/>
+      <c r="A220" s="44"/>
+      <c r="B220" s="43"/>
       <c r="C220" s="23" t="s">
         <v>195</v>
       </c>
@@ -9757,8 +10006,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A221" s="37"/>
-      <c r="B221" s="36"/>
+      <c r="A221" s="44"/>
+      <c r="B221" s="43"/>
       <c r="C221" s="23" t="s">
         <v>198</v>
       </c>
@@ -9773,10 +10022,10 @@
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A223" s="37" t="s">
+      <c r="A223" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B223" s="36" t="s">
+      <c r="B223" s="43" t="s">
         <v>201</v>
       </c>
       <c r="C223" s="23" t="s">
@@ -9787,8 +10036,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A224" s="37"/>
-      <c r="B224" s="36"/>
+      <c r="A224" s="44"/>
+      <c r="B224" s="43"/>
       <c r="C224" s="24" t="s">
         <v>98</v>
       </c>
@@ -9797,8 +10046,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A225" s="37"/>
-      <c r="B225" s="36"/>
+      <c r="A225" s="44"/>
+      <c r="B225" s="43"/>
       <c r="C225" s="23" t="s">
         <v>446</v>
       </c>
@@ -9807,8 +10056,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A226" s="37"/>
-      <c r="B226" s="36"/>
+      <c r="A226" s="44"/>
+      <c r="B226" s="43"/>
       <c r="C226" s="24" t="s">
         <v>146</v>
       </c>
@@ -9817,8 +10066,8 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="37"/>
-      <c r="B227" s="36"/>
+      <c r="A227" s="44"/>
+      <c r="B227" s="43"/>
       <c r="C227" s="23" t="s">
         <v>195</v>
       </c>
@@ -9827,8 +10076,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="37"/>
-      <c r="B228" s="36"/>
+      <c r="A228" s="44"/>
+      <c r="B228" s="43"/>
       <c r="C228" s="23" t="s">
         <v>198</v>
       </c>
@@ -9837,8 +10086,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A229" s="37"/>
-      <c r="B229" s="36"/>
+      <c r="A229" s="44"/>
+      <c r="B229" s="43"/>
       <c r="C229" s="23" t="s">
         <v>200</v>
       </c>
@@ -9853,10 +10102,10 @@
       <c r="D230" s="18"/>
     </row>
     <row r="231" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A231" s="37" t="s">
+      <c r="A231" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B231" s="36" t="s">
+      <c r="B231" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C231" s="23" t="s">
@@ -9867,8 +10116,8 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A232" s="37"/>
-      <c r="B232" s="36"/>
+      <c r="A232" s="44"/>
+      <c r="B232" s="43"/>
       <c r="C232" s="24" t="s">
         <v>98</v>
       </c>
@@ -9877,8 +10126,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A233" s="37"/>
-      <c r="B233" s="36"/>
+      <c r="A233" s="44"/>
+      <c r="B233" s="43"/>
       <c r="C233" s="23" t="s">
         <v>446</v>
       </c>
@@ -9887,8 +10136,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A234" s="37"/>
-      <c r="B234" s="36"/>
+      <c r="A234" s="44"/>
+      <c r="B234" s="43"/>
       <c r="C234" s="24" t="s">
         <v>146</v>
       </c>
@@ -9897,8 +10146,8 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A235" s="37"/>
-      <c r="B235" s="36"/>
+      <c r="A235" s="44"/>
+      <c r="B235" s="43"/>
       <c r="C235" s="23" t="s">
         <v>195</v>
       </c>
@@ -9907,8 +10156,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A236" s="37"/>
-      <c r="B236" s="36"/>
+      <c r="A236" s="44"/>
+      <c r="B236" s="43"/>
       <c r="C236" s="23" t="s">
         <v>145</v>
       </c>
@@ -9923,10 +10172,10 @@
       <c r="D237" s="18"/>
     </row>
     <row r="238" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A238" s="37" t="s">
+      <c r="A238" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="B238" s="36" t="s">
+      <c r="B238" s="43" t="s">
         <v>203</v>
       </c>
       <c r="C238" s="23" t="s">
@@ -9937,8 +10186,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A239" s="37"/>
-      <c r="B239" s="36"/>
+      <c r="A239" s="44"/>
+      <c r="B239" s="43"/>
       <c r="C239" s="24" t="s">
         <v>98</v>
       </c>
@@ -9947,8 +10196,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A240" s="37"/>
-      <c r="B240" s="36"/>
+      <c r="A240" s="44"/>
+      <c r="B240" s="43"/>
       <c r="C240" s="23" t="s">
         <v>446</v>
       </c>
@@ -9957,8 +10206,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A241" s="37"/>
-      <c r="B241" s="36"/>
+      <c r="A241" s="44"/>
+      <c r="B241" s="43"/>
       <c r="C241" s="24" t="s">
         <v>146</v>
       </c>
@@ -9967,8 +10216,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A242" s="37"/>
-      <c r="B242" s="36"/>
+      <c r="A242" s="44"/>
+      <c r="B242" s="43"/>
       <c r="C242" s="23" t="s">
         <v>204</v>
       </c>
@@ -9983,10 +10232,10 @@
       <c r="D243" s="18"/>
     </row>
     <row r="244" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A244" s="37" t="s">
+      <c r="A244" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B244" s="36" t="s">
+      <c r="B244" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C244" s="23" t="s">
@@ -9997,8 +10246,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A245" s="37"/>
-      <c r="B245" s="36"/>
+      <c r="A245" s="44"/>
+      <c r="B245" s="43"/>
       <c r="C245" s="24" t="s">
         <v>98</v>
       </c>
@@ -10007,8 +10256,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A246" s="37"/>
-      <c r="B246" s="36"/>
+      <c r="A246" s="44"/>
+      <c r="B246" s="43"/>
       <c r="C246" s="23" t="s">
         <v>446</v>
       </c>
@@ -10017,8 +10266,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A247" s="37"/>
-      <c r="B247" s="36"/>
+      <c r="A247" s="44"/>
+      <c r="B247" s="43"/>
       <c r="C247" s="24" t="s">
         <v>146</v>
       </c>
@@ -10027,8 +10276,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="37"/>
-      <c r="B248" s="36"/>
+      <c r="A248" s="44"/>
+      <c r="B248" s="43"/>
       <c r="C248" s="23" t="s">
         <v>204</v>
       </c>
@@ -10043,10 +10292,10 @@
       <c r="D249" s="18"/>
     </row>
     <row r="250" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A250" s="37" t="s">
+      <c r="A250" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="B250" s="36" t="s">
+      <c r="B250" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C250" s="23" t="s">
@@ -10057,8 +10306,8 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A251" s="37"/>
-      <c r="B251" s="36"/>
+      <c r="A251" s="44"/>
+      <c r="B251" s="43"/>
       <c r="C251" s="24" t="s">
         <v>98</v>
       </c>
@@ -10067,8 +10316,8 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A252" s="37"/>
-      <c r="B252" s="36"/>
+      <c r="A252" s="44"/>
+      <c r="B252" s="43"/>
       <c r="C252" s="23" t="s">
         <v>446</v>
       </c>
@@ -10077,8 +10326,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A253" s="37"/>
-      <c r="B253" s="36"/>
+      <c r="A253" s="44"/>
+      <c r="B253" s="43"/>
       <c r="C253" s="24" t="s">
         <v>146</v>
       </c>
@@ -10087,8 +10336,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A254" s="37"/>
-      <c r="B254" s="36"/>
+      <c r="A254" s="44"/>
+      <c r="B254" s="43"/>
       <c r="C254" s="23" t="s">
         <v>204</v>
       </c>
@@ -10097,8 +10346,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A255" s="37"/>
-      <c r="B255" s="36"/>
+      <c r="A255" s="44"/>
+      <c r="B255" s="43"/>
       <c r="C255" s="23" t="s">
         <v>207</v>
       </c>
@@ -10113,10 +10362,10 @@
       <c r="D256" s="18"/>
     </row>
     <row r="257" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A257" s="37" t="s">
+      <c r="A257" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="B257" s="36" t="s">
+      <c r="B257" s="43" t="s">
         <v>178</v>
       </c>
       <c r="C257" s="23" t="s">
@@ -10127,8 +10376,8 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A258" s="37"/>
-      <c r="B258" s="36"/>
+      <c r="A258" s="44"/>
+      <c r="B258" s="43"/>
       <c r="C258" s="24" t="s">
         <v>98</v>
       </c>
@@ -10137,8 +10386,8 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A259" s="37"/>
-      <c r="B259" s="36"/>
+      <c r="A259" s="44"/>
+      <c r="B259" s="43"/>
       <c r="C259" s="23" t="s">
         <v>446</v>
       </c>
@@ -10147,8 +10396,8 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A260" s="37"/>
-      <c r="B260" s="36"/>
+      <c r="A260" s="44"/>
+      <c r="B260" s="43"/>
       <c r="C260" s="24" t="s">
         <v>146</v>
       </c>
@@ -10157,8 +10406,8 @@
       </c>
     </row>
     <row r="261" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="37"/>
-      <c r="B261" s="36"/>
+      <c r="A261" s="44"/>
+      <c r="B261" s="43"/>
       <c r="C261" s="23" t="s">
         <v>204</v>
       </c>
@@ -10167,8 +10416,8 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A262" s="37"/>
-      <c r="B262" s="36"/>
+      <c r="A262" s="44"/>
+      <c r="B262" s="43"/>
       <c r="C262" s="23" t="s">
         <v>209</v>
       </c>
@@ -10182,10 +10431,10 @@
       <c r="D263" s="18"/>
     </row>
     <row r="264" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A264" s="37" t="s">
+      <c r="A264" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B264" s="36" t="s">
+      <c r="B264" s="43" t="s">
         <v>85</v>
       </c>
       <c r="C264" s="23" t="s">
@@ -10196,8 +10445,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A265" s="37"/>
-      <c r="B265" s="36"/>
+      <c r="A265" s="44"/>
+      <c r="B265" s="43"/>
       <c r="C265" s="24" t="s">
         <v>98</v>
       </c>
@@ -10206,8 +10455,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A266" s="37"/>
-      <c r="B266" s="36"/>
+      <c r="A266" s="44"/>
+      <c r="B266" s="43"/>
       <c r="C266" s="23" t="s">
         <v>446</v>
       </c>
@@ -10216,8 +10465,8 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A267" s="37"/>
-      <c r="B267" s="36"/>
+      <c r="A267" s="44"/>
+      <c r="B267" s="43"/>
       <c r="C267" s="24" t="s">
         <v>146</v>
       </c>
@@ -10226,8 +10475,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="37"/>
-      <c r="B268" s="36"/>
+      <c r="A268" s="44"/>
+      <c r="B268" s="43"/>
       <c r="C268" s="24" t="s">
         <v>215</v>
       </c>
@@ -10241,10 +10490,10 @@
       <c r="D269" s="18"/>
     </row>
     <row r="270" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A270" s="37" t="s">
+      <c r="A270" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B270" s="36" t="s">
+      <c r="B270" s="43" t="s">
         <v>86</v>
       </c>
       <c r="C270" s="23" t="s">
@@ -10255,8 +10504,8 @@
       </c>
     </row>
     <row r="271" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A271" s="37"/>
-      <c r="B271" s="36"/>
+      <c r="A271" s="44"/>
+      <c r="B271" s="43"/>
       <c r="C271" s="24" t="s">
         <v>98</v>
       </c>
@@ -10265,8 +10514,8 @@
       </c>
     </row>
     <row r="272" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A272" s="37"/>
-      <c r="B272" s="36"/>
+      <c r="A272" s="44"/>
+      <c r="B272" s="43"/>
       <c r="C272" s="23" t="s">
         <v>446</v>
       </c>
@@ -10275,8 +10524,8 @@
       </c>
     </row>
     <row r="273" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A273" s="37"/>
-      <c r="B273" s="36"/>
+      <c r="A273" s="44"/>
+      <c r="B273" s="43"/>
       <c r="C273" s="24" t="s">
         <v>146</v>
       </c>
@@ -10285,8 +10534,8 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A274" s="37"/>
-      <c r="B274" s="36"/>
+      <c r="A274" s="44"/>
+      <c r="B274" s="43"/>
       <c r="C274" s="24" t="s">
         <v>215</v>
       </c>
@@ -10295,8 +10544,8 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A275" s="37"/>
-      <c r="B275" s="36"/>
+      <c r="A275" s="44"/>
+      <c r="B275" s="43"/>
       <c r="C275" s="24" t="s">
         <v>217</v>
       </c>
@@ -10310,10 +10559,10 @@
       <c r="D276" s="18"/>
     </row>
     <row r="277" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A277" s="37" t="s">
+      <c r="A277" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B277" s="36" t="s">
+      <c r="B277" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C277" s="23" t="s">
@@ -10324,8 +10573,8 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A278" s="37"/>
-      <c r="B278" s="36"/>
+      <c r="A278" s="44"/>
+      <c r="B278" s="43"/>
       <c r="C278" s="24" t="s">
         <v>98</v>
       </c>
@@ -10334,8 +10583,8 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A279" s="37"/>
-      <c r="B279" s="36"/>
+      <c r="A279" s="44"/>
+      <c r="B279" s="43"/>
       <c r="C279" s="23" t="s">
         <v>446</v>
       </c>
@@ -10344,8 +10593,8 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A280" s="37"/>
-      <c r="B280" s="36"/>
+      <c r="A280" s="44"/>
+      <c r="B280" s="43"/>
       <c r="C280" s="24" t="s">
         <v>146</v>
       </c>
@@ -10354,8 +10603,8 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A281" s="37"/>
-      <c r="B281" s="36"/>
+      <c r="A281" s="44"/>
+      <c r="B281" s="43"/>
       <c r="C281" s="24" t="s">
         <v>219</v>
       </c>
@@ -10369,10 +10618,10 @@
       <c r="D282" s="18"/>
     </row>
     <row r="283" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A283" s="37" t="s">
+      <c r="A283" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B283" s="36" t="s">
+      <c r="B283" s="43" t="s">
         <v>221</v>
       </c>
       <c r="C283" s="23" t="s">
@@ -10383,8 +10632,8 @@
       </c>
     </row>
     <row r="284" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A284" s="37"/>
-      <c r="B284" s="36"/>
+      <c r="A284" s="44"/>
+      <c r="B284" s="43"/>
       <c r="C284" s="24" t="s">
         <v>98</v>
       </c>
@@ -10393,8 +10642,8 @@
       </c>
     </row>
     <row r="285" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A285" s="37"/>
-      <c r="B285" s="36"/>
+      <c r="A285" s="44"/>
+      <c r="B285" s="43"/>
       <c r="C285" s="23" t="s">
         <v>446</v>
       </c>
@@ -10403,8 +10652,8 @@
       </c>
     </row>
     <row r="286" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A286" s="37"/>
-      <c r="B286" s="36"/>
+      <c r="A286" s="44"/>
+      <c r="B286" s="43"/>
       <c r="C286" s="24" t="s">
         <v>146</v>
       </c>
@@ -10413,8 +10662,8 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A287" s="37"/>
-      <c r="B287" s="36"/>
+      <c r="A287" s="44"/>
+      <c r="B287" s="43"/>
       <c r="C287" s="23" t="s">
         <v>223</v>
       </c>
@@ -10428,10 +10677,10 @@
       <c r="D288" s="18"/>
     </row>
     <row r="289" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A289" s="37" t="s">
+      <c r="A289" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B289" s="36" t="s">
+      <c r="B289" s="43" t="s">
         <v>222</v>
       </c>
       <c r="C289" s="23" t="s">
@@ -10442,8 +10691,8 @@
       </c>
     </row>
     <row r="290" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A290" s="37"/>
-      <c r="B290" s="36"/>
+      <c r="A290" s="44"/>
+      <c r="B290" s="43"/>
       <c r="C290" s="24" t="s">
         <v>98</v>
       </c>
@@ -10452,8 +10701,8 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A291" s="37"/>
-      <c r="B291" s="36"/>
+      <c r="A291" s="44"/>
+      <c r="B291" s="43"/>
       <c r="C291" s="23" t="s">
         <v>446</v>
       </c>
@@ -10462,8 +10711,8 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A292" s="37"/>
-      <c r="B292" s="36"/>
+      <c r="A292" s="44"/>
+      <c r="B292" s="43"/>
       <c r="C292" s="24" t="s">
         <v>146</v>
       </c>
@@ -10472,8 +10721,8 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A293" s="37"/>
-      <c r="B293" s="36"/>
+      <c r="A293" s="44"/>
+      <c r="B293" s="43"/>
       <c r="C293" s="23" t="s">
         <v>225</v>
       </c>
@@ -11626,72 +11875,12 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B289:B293"/>
-    <mergeCell ref="A289:A293"/>
-    <mergeCell ref="B283:B287"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="B264:B268"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="B270:B275"/>
-    <mergeCell ref="A270:A275"/>
-    <mergeCell ref="A277:A281"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="A244:A248"/>
-    <mergeCell ref="B244:B248"/>
-    <mergeCell ref="B250:B255"/>
-    <mergeCell ref="A250:A255"/>
-    <mergeCell ref="A257:A262"/>
-    <mergeCell ref="B257:B262"/>
-    <mergeCell ref="B223:B229"/>
-    <mergeCell ref="A223:A229"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B216:B221"/>
-    <mergeCell ref="A216:A221"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="A169:A174"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="B138:B142"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B12"/>
@@ -11708,12 +11897,72 @@
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="B34:B39"/>
     <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="B150:B154"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B169:B174"/>
+    <mergeCell ref="A169:A174"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B216:B221"/>
+    <mergeCell ref="A216:A221"/>
+    <mergeCell ref="B223:B229"/>
+    <mergeCell ref="A223:A229"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="B238:B242"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A244:A248"/>
+    <mergeCell ref="B244:B248"/>
+    <mergeCell ref="B250:B255"/>
+    <mergeCell ref="A250:A255"/>
+    <mergeCell ref="A257:A262"/>
+    <mergeCell ref="B257:B262"/>
+    <mergeCell ref="B289:B293"/>
+    <mergeCell ref="A289:A293"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="A283:A287"/>
+    <mergeCell ref="B264:B268"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="B270:B275"/>
+    <mergeCell ref="A270:A275"/>
+    <mergeCell ref="A277:A281"/>
+    <mergeCell ref="B277:B281"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28418,10 +28667,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="46" t="s">
         <v>235</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -28432,8 +28681,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="24" t="s">
         <v>98</v>
       </c>
@@ -28442,8 +28691,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="23" t="s">
         <v>99</v>
       </c>
@@ -28452,8 +28701,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="24" t="s">
         <v>248</v>
       </c>
@@ -28465,10 +28714,10 @@
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="49" t="s">
         <v>238</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -28479,8 +28728,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="24" t="s">
         <v>98</v>
       </c>
@@ -28489,8 +28738,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="23" t="s">
         <v>99</v>
       </c>
@@ -28499,8 +28748,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="24" t="s">
         <v>248</v>
       </c>
@@ -28509,8 +28758,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="24" t="s">
         <v>251</v>
       </c>
@@ -28579,10 +28828,10 @@
       <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="43" t="s">
         <v>239</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -28593,8 +28842,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="24" t="s">
         <v>98</v>
       </c>
@@ -28603,8 +28852,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="23" t="s">
         <v>99</v>
       </c>
@@ -28613,8 +28862,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="24" t="s">
         <v>248</v>
       </c>
@@ -28623,8 +28872,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="24" t="s">
         <v>256</v>
       </c>
@@ -28633,8 +28882,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="24" t="s">
         <v>257</v>
       </c>
@@ -28646,10 +28895,10 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="43" t="s">
         <v>240</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -28660,8 +28909,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="24" t="s">
         <v>98</v>
       </c>
@@ -28670,8 +28919,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="23" t="s">
         <v>99</v>
       </c>
@@ -28680,8 +28929,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="24" t="s">
         <v>248</v>
       </c>
@@ -28690,8 +28939,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="24" t="s">
         <v>259</v>
       </c>
@@ -28703,10 +28952,10 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="43" t="s">
         <v>241</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -28717,8 +28966,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="24" t="s">
         <v>98</v>
       </c>
@@ -28727,8 +28976,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="23" t="s">
         <v>99</v>
       </c>
@@ -28737,8 +28986,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="24" t="s">
         <v>248</v>
       </c>
@@ -28747,8 +28996,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="24" t="s">
         <v>259</v>
       </c>
@@ -28768,10 +29017,10 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="43" t="s">
         <v>245</v>
       </c>
       <c r="C40" s="23" t="s">
@@ -28782,8 +29031,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="24" t="s">
         <v>98</v>
       </c>
@@ -28792,8 +29041,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="23" t="s">
         <v>99</v>
       </c>
@@ -28802,8 +29051,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="24" t="s">
         <v>248</v>
       </c>
@@ -28812,8 +29061,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="24" t="s">
         <v>263</v>
       </c>
@@ -28825,10 +29074,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="43" t="s">
         <v>264</v>
       </c>
       <c r="C46" s="23" t="s">
@@ -28839,8 +29088,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="24" t="s">
         <v>98</v>
       </c>
@@ -28849,8 +29098,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="36"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="23" t="s">
         <v>99</v>
       </c>
@@ -28859,8 +29108,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="24" t="s">
         <v>248</v>
       </c>
@@ -28869,8 +29118,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="24" t="s">
         <v>263</v>
       </c>
@@ -28879,8 +29128,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="36"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="24" t="s">
         <v>265</v>
       </c>
@@ -28892,10 +29141,10 @@
       <c r="C52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="43" t="s">
         <v>246</v>
       </c>
       <c r="C53" s="23" t="s">
@@ -28906,8 +29155,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="24" t="s">
         <v>98</v>
       </c>
@@ -28916,8 +29165,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="36"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="23" t="s">
         <v>99</v>
       </c>
@@ -28926,8 +29175,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="24" t="s">
         <v>248</v>
       </c>
@@ -28936,8 +29185,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="24" t="s">
         <v>263</v>
       </c>
@@ -28946,8 +29195,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="24" t="s">
         <v>265</v>
       </c>
@@ -28956,8 +29205,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="24" t="s">
         <v>267</v>
       </c>
@@ -28969,10 +29218,10 @@
       <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="43" t="s">
         <v>247</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -28983,8 +29232,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="24" t="s">
         <v>98</v>
       </c>
@@ -28993,8 +29242,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="37"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="23" t="s">
         <v>99</v>
       </c>
@@ -29003,8 +29252,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A64" s="37"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="24" t="s">
         <v>248</v>
       </c>
@@ -29013,8 +29262,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="24" t="s">
         <v>263</v>
       </c>
@@ -29023,8 +29272,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="24" t="s">
         <v>265</v>
       </c>
@@ -29033,8 +29282,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="24" t="s">
         <v>269</v>
       </c>
@@ -30190,12 +30439,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="A61:A67"/>
     <mergeCell ref="A27:A31"/>
@@ -30208,6 +30451,12 @@
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mars Test Conditions and Test cases .xlsx
+++ b/Mars Test Conditions and Test cases .xlsx
@@ -8,28 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIPER\source\repos\piper9797\Skillwap_Test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266FD9B-E916-4C67-B951-A7A2CE27B0F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512DF699-EE6C-4A78-A255-4B4607CA61C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="1000" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Conditions-Registration" sheetId="5" r:id="rId1"/>
     <sheet name="Test Cases-Registration" sheetId="6" r:id="rId2"/>
     <sheet name="Test Conditions-Sign in" sheetId="10" r:id="rId3"/>
-    <sheet name="Test cases-Sign in" sheetId="11" r:id="rId4"/>
-    <sheet name="Test Conditions-ShareSkill" sheetId="1" r:id="rId5"/>
-    <sheet name=" Test Case-ShareSkill" sheetId="2" r:id="rId6"/>
-    <sheet name="Test Conditions-ManageListings" sheetId="3" r:id="rId7"/>
-    <sheet name="Test Case-ManageListings" sheetId="4" r:id="rId8"/>
+    <sheet name="Test Case-ManageListings" sheetId="4" r:id="rId4"/>
+    <sheet name="Test cases-Sign in" sheetId="11" r:id="rId5"/>
+    <sheet name="Test Conditions-ShareSkill" sheetId="1" r:id="rId6"/>
+    <sheet name=" Test Case-ShareSkill" sheetId="2" r:id="rId7"/>
+    <sheet name="Test Conditions-ManageListings" sheetId="3" r:id="rId8"/>
     <sheet name="Test Condition-Profile" sheetId="8" r:id="rId9"/>
     <sheet name="Test Cases-Profile" sheetId="9" r:id="rId10"/>
+    <sheet name="Test Condition-Search Skill" sheetId="12" r:id="rId11"/>
+    <sheet name="Test Cases-Search Skill" sheetId="13" r:id="rId12"/>
+    <sheet name="Test Condition-Notification" sheetId="14" r:id="rId13"/>
+    <sheet name="Test Cases-Notification" sheetId="15" r:id="rId14"/>
+    <sheet name="Test Condition-Chat" sheetId="16" r:id="rId15"/>
+    <sheet name="Test Cases-Chat" sheetId="18" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="585">
   <si>
     <t>ID</t>
   </si>
@@ -2392,29 +2406,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Login with Valid Credentials Username: lakshmi12_nlp@yahoo.com Password:Abc@1234</t>
-    </r>
-  </si>
-  <si>
     <t>User Should be able to Navigate to the Login page.</t>
   </si>
   <si>
@@ -3940,6 +3931,282 @@
   </si>
   <si>
     <t>The User should be able to login unsucessfully</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Conditions</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Skills by All Categories, Sub Categories</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Skills by Filters</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can search skills by typing keywords</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can search skills by categories</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can search skills by filter "online"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can search skills by filter "onsite"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can search skills by filter "showAll"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test cases</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test case steps</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>excepted result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_002_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user can navigate the skillswap website</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step1 :Launch the URL "http://192.168.99.100:5000/"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 2: Login with Valid Credentials Username: mvpstudio.qa@gmail.com Password:SydneyQa2018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Type the keyword "boxing" in search area and press search button </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User should be able to search the "boxing" skill</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 3: press the search button</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User should be able to go to search page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 3: choose the option "fun and lifestyle"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User should be able to search the skills in fun and lifestyle section</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4: choose the option "online"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User should be able to search the skills by "online"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4: choose the option "onsite"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User should be able to search the skills by "onsite"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4: choose the option "showAll"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User should be able to search the skills by "showAll"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete in notifications page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark as Read in notifications page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select &amp; Unselect in notifications page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test condition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can use "Delete" in notifications page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can use "Mark as Read" in notifications page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can use "Select &amp; Unselect" in notifications page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Test cases </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test cases Steps</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>See all in notifications page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can use "See All" in notifications page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to Login in to  the Application.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: Click the notification button and  Click the button "See All..." </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to go to notification page and see all the notifications</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4:Select the first notification's check box</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to select the first notification's check box</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 5:Click delete button</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to delete that notification</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4:Select the "select all" button in notification page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to select all the nitifications</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 5:Click "Mark as Read" button</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to mark as read the notifications</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to select all the notifications</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 5:Unselect the first notification's check box</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to unselect the first notification's check box</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send the message to someone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look up the chat histories</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can send a message to MVP Studio</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can look up chat history with MVP Studio</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test cases step</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected results</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 3: Click the "Chat" button</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to go to chat page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4: Choose "MVP" and send "hello" to "MVP"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to send hello to MVP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if the user can look up chat history of MVP Studio</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user should be able to check the chat history between the user and MVP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4: Choose "MVP" and Scroll the bar up to check the chat history between the user and MVP</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4024,7 +4291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4128,11 +4395,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4263,6 +4543,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4277,6 +4560,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4651,10 +4964,10 @@
         <v>278</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>447</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4662,7 +4975,7 @@
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4670,7 +4983,7 @@
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4688,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9319DC10-DC9D-4C6C-B1FB-C0938B18EAB3}">
   <dimension ref="A1:Z207"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4697,7 +5010,7 @@
     <col min="1" max="1" width="18" style="25" customWidth="1"/>
     <col min="2" max="2" width="52" style="28" customWidth="1"/>
     <col min="3" max="3" width="55.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.265625" customWidth="1"/>
+    <col min="4" max="4" width="46.06640625" customWidth="1"/>
     <col min="5" max="5" width="25.86328125" customWidth="1"/>
     <col min="6" max="6" width="22.3984375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
@@ -4753,20 +5066,20 @@
         <v>24</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="30" t="s">
-        <v>330</v>
+      <c r="C3" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>26</v>
@@ -4776,40 +5089,40 @@
       <c r="A4" s="44"/>
       <c r="B4" s="47"/>
       <c r="C4" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="47"/>
       <c r="C5" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="47"/>
       <c r="C6" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="47"/>
       <c r="C7" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -4817,7 +5130,7 @@
     </row>
     <row r="9" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>281</v>
@@ -4826,14 +5139,14 @@
         <v>25</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="30" t="s">
-        <v>330</v>
+      <c r="C10" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>26</v>
@@ -4843,40 +5156,40 @@
       <c r="A11" s="44"/>
       <c r="B11" s="48"/>
       <c r="C11" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="48"/>
       <c r="C12" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="48"/>
       <c r="C13" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="48"/>
       <c r="C14" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -4884,7 +5197,7 @@
     </row>
     <row r="16" spans="1:26" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>282</v>
@@ -4893,14 +5206,14 @@
         <v>25</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="48"/>
       <c r="C17" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>26</v>
@@ -4910,20 +5223,20 @@
       <c r="A18" s="44"/>
       <c r="B18" s="48"/>
       <c r="C18" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="48"/>
       <c r="C19" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -4937,14 +5250,14 @@
         <v>25</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="30" t="s">
-        <v>330</v>
+      <c r="C22" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>26</v>
@@ -4954,7 +5267,7 @@
       <c r="A23" s="44"/>
       <c r="B23" s="48"/>
       <c r="C23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -4968,14 +5281,14 @@
         <v>25</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="48"/>
-      <c r="C26" s="30" t="s">
-        <v>330</v>
+      <c r="C26" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>26</v>
@@ -4985,20 +5298,20 @@
       <c r="A27" s="44"/>
       <c r="B27" s="48"/>
       <c r="C27" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="48"/>
       <c r="C28" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5012,14 +5325,14 @@
         <v>25</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
       <c r="B31" s="48"/>
-      <c r="C31" s="30" t="s">
-        <v>330</v>
+      <c r="C31" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>26</v>
@@ -5029,20 +5342,20 @@
       <c r="A32" s="44"/>
       <c r="B32" s="48"/>
       <c r="C32" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
       <c r="B33" s="48"/>
       <c r="C33" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5056,14 +5369,14 @@
         <v>25</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" s="48"/>
-      <c r="C36" s="30" t="s">
-        <v>330</v>
+      <c r="C36" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>26</v>
@@ -5073,25 +5386,25 @@
       <c r="A37" s="44"/>
       <c r="B37" s="48"/>
       <c r="C37" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" s="48"/>
       <c r="C38" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>289</v>
@@ -5100,14 +5413,14 @@
         <v>25</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" s="48"/>
-      <c r="C41" s="30" t="s">
-        <v>330</v>
+      <c r="C41" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>26</v>
@@ -5117,20 +5430,20 @@
       <c r="A42" s="44"/>
       <c r="B42" s="48"/>
       <c r="C42" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" s="48"/>
       <c r="C43" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5144,14 +5457,14 @@
         <v>25</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
       <c r="B46" s="48"/>
-      <c r="C46" s="30" t="s">
-        <v>330</v>
+      <c r="C46" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>26</v>
@@ -5161,20 +5474,20 @@
       <c r="A47" s="44"/>
       <c r="B47" s="48"/>
       <c r="C47" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A48" s="44"/>
       <c r="B48" s="48"/>
       <c r="C48" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5188,14 +5501,14 @@
         <v>25</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
       <c r="B51" s="48"/>
-      <c r="C51" s="30" t="s">
-        <v>330</v>
+      <c r="C51" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>26</v>
@@ -5205,20 +5518,20 @@
       <c r="A52" s="44"/>
       <c r="B52" s="48"/>
       <c r="C52" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A53" s="44"/>
       <c r="B53" s="48"/>
       <c r="C53" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5232,14 +5545,14 @@
         <v>25</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
       <c r="B56" s="48"/>
-      <c r="C56" s="30" t="s">
-        <v>330</v>
+      <c r="C56" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>26</v>
@@ -5249,20 +5562,20 @@
       <c r="A57" s="44"/>
       <c r="B57" s="48"/>
       <c r="C57" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="44"/>
       <c r="B58" s="48"/>
       <c r="C58" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5276,14 +5589,14 @@
         <v>25</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="48"/>
       <c r="C61" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D61" s="29" t="s">
         <v>26</v>
@@ -5293,20 +5606,20 @@
       <c r="A62" s="43"/>
       <c r="B62" s="48"/>
       <c r="C62" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="48"/>
       <c r="C63" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5320,14 +5633,14 @@
         <v>25</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
       <c r="B66" s="48"/>
-      <c r="C66" s="30" t="s">
-        <v>330</v>
+      <c r="C66" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>26</v>
@@ -5337,20 +5650,20 @@
       <c r="A67" s="43"/>
       <c r="B67" s="48"/>
       <c r="C67" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="48"/>
       <c r="C68" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5364,14 +5677,14 @@
         <v>25</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A71" s="44"/>
       <c r="B71" s="48"/>
-      <c r="C71" s="30" t="s">
-        <v>330</v>
+      <c r="C71" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D71" s="29" t="s">
         <v>26</v>
@@ -5381,20 +5694,20 @@
       <c r="A72" s="44"/>
       <c r="B72" s="48"/>
       <c r="C72" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A73" s="44"/>
       <c r="B73" s="48"/>
       <c r="C73" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5408,14 +5721,14 @@
         <v>25</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A76" s="44"/>
       <c r="B76" s="48"/>
-      <c r="C76" s="30" t="s">
-        <v>330</v>
+      <c r="C76" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>26</v>
@@ -5425,17 +5738,17 @@
       <c r="A77" s="44"/>
       <c r="B77" s="48"/>
       <c r="C77" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A78" s="44"/>
       <c r="B78" s="48"/>
       <c r="C78" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>38</v>
@@ -5443,10 +5756,10 @@
     </row>
     <row r="79" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="C79" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5460,14 +5773,14 @@
         <v>25</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A81" s="44"/>
       <c r="B81" s="48"/>
       <c r="C81" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D81" s="29" t="s">
         <v>26</v>
@@ -5477,17 +5790,17 @@
       <c r="A82" s="44"/>
       <c r="B82" s="48"/>
       <c r="C82" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A83" s="44"/>
       <c r="B83" s="48"/>
       <c r="C83" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>40</v>
@@ -5497,10 +5810,10 @@
       <c r="A84" s="44"/>
       <c r="B84" s="48"/>
       <c r="C84" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5514,14 +5827,14 @@
         <v>25</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A86" s="44"/>
       <c r="B86" s="48"/>
-      <c r="C86" s="30" t="s">
-        <v>330</v>
+      <c r="C86" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D86" s="29" t="s">
         <v>26</v>
@@ -5531,10 +5844,10 @@
       <c r="A87" s="44"/>
       <c r="B87" s="48"/>
       <c r="C87" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5542,20 +5855,20 @@
         <v>42</v>
       </c>
       <c r="B89" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C89" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A90" s="44"/>
       <c r="B90" s="48"/>
       <c r="C90" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D90" s="29" t="s">
         <v>26</v>
@@ -5565,50 +5878,50 @@
       <c r="A91" s="44"/>
       <c r="B91" s="48"/>
       <c r="C91" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A92" s="44"/>
       <c r="B92" s="48"/>
       <c r="C92" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A93" s="44"/>
       <c r="B93" s="48"/>
       <c r="C93" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A94" s="44"/>
       <c r="B94" s="48"/>
       <c r="C94" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A95" s="44"/>
       <c r="B95" s="48"/>
       <c r="C95" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5622,14 +5935,14 @@
         <v>25</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A98" s="44"/>
       <c r="B98" s="48"/>
-      <c r="C98" s="30" t="s">
-        <v>330</v>
+      <c r="C98" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="D98" s="29" t="s">
         <v>26</v>
@@ -5639,50 +5952,50 @@
       <c r="A99" s="44"/>
       <c r="B99" s="48"/>
       <c r="C99" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A100" s="44"/>
       <c r="B100" s="48"/>
       <c r="C100" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A101" s="44"/>
       <c r="B101" s="48"/>
       <c r="C101" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A102" s="44"/>
       <c r="B102" s="48"/>
       <c r="C102" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A103" s="44"/>
       <c r="B103" s="48"/>
       <c r="C103" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5690,20 +6003,20 @@
         <v>44</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A106" s="44"/>
       <c r="B106" s="48"/>
       <c r="C106" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>26</v>
@@ -5713,40 +6026,40 @@
       <c r="A107" s="44"/>
       <c r="B107" s="48"/>
       <c r="C107" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A108" s="44"/>
       <c r="B108" s="48"/>
       <c r="C108" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A109" s="44"/>
       <c r="B109" s="48"/>
       <c r="C109" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A110" s="44"/>
       <c r="B110" s="48"/>
       <c r="C110" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5760,14 +6073,14 @@
         <v>25</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A113" s="44"/>
       <c r="B113" s="48"/>
       <c r="C113" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D113" s="29" t="s">
         <v>26</v>
@@ -5777,40 +6090,40 @@
       <c r="A114" s="44"/>
       <c r="B114" s="48"/>
       <c r="C114" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A115" s="44"/>
       <c r="B115" s="48"/>
       <c r="C115" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A116" s="44"/>
       <c r="B116" s="48"/>
       <c r="C116" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A117" s="44"/>
       <c r="B117" s="48"/>
       <c r="C117" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5824,14 +6137,14 @@
         <v>25</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A120" s="44"/>
       <c r="B120" s="48"/>
       <c r="C120" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D120" s="29" t="s">
         <v>26</v>
@@ -5841,20 +6154,20 @@
       <c r="A121" s="44"/>
       <c r="B121" s="48"/>
       <c r="C121" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A122" s="44"/>
       <c r="B122" s="48"/>
       <c r="C122" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5868,14 +6181,14 @@
         <v>25</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A125" s="44"/>
       <c r="B125" s="48"/>
       <c r="C125" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D125" s="29" t="s">
         <v>26</v>
@@ -5885,10 +6198,10 @@
       <c r="A126" s="44"/>
       <c r="B126" s="48"/>
       <c r="C126" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5902,14 +6215,14 @@
         <v>25</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A128" s="44"/>
       <c r="B128" s="48"/>
       <c r="C128" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D128" s="29" t="s">
         <v>26</v>
@@ -5919,50 +6232,50 @@
       <c r="A129" s="44"/>
       <c r="B129" s="48"/>
       <c r="C129" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A130" s="44"/>
       <c r="B130" s="48"/>
       <c r="C130" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A131" s="44"/>
       <c r="B131" s="48"/>
       <c r="C131" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A132" s="44"/>
       <c r="B132" s="48"/>
       <c r="C132" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A133" s="44"/>
       <c r="B133" s="48"/>
       <c r="C133" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -5976,14 +6289,14 @@
         <v>25</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A136" s="44"/>
       <c r="B136" s="48"/>
       <c r="C136" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D136" s="29" t="s">
         <v>26</v>
@@ -5993,50 +6306,50 @@
       <c r="A137" s="44"/>
       <c r="B137" s="48"/>
       <c r="C137" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A138" s="44"/>
       <c r="B138" s="48"/>
       <c r="C138" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A139" s="44"/>
       <c r="B139" s="48"/>
       <c r="C139" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A140" s="44"/>
       <c r="B140" s="48"/>
       <c r="C140" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A141" s="44"/>
       <c r="B141" s="48"/>
       <c r="C141" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -6050,14 +6363,14 @@
         <v>25</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A144" s="44"/>
       <c r="B144" s="48"/>
       <c r="C144" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D144" s="29" t="s">
         <v>26</v>
@@ -6067,40 +6380,40 @@
       <c r="A145" s="44"/>
       <c r="B145" s="48"/>
       <c r="C145" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A146" s="44"/>
       <c r="B146" s="48"/>
       <c r="C146" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A147" s="44"/>
       <c r="B147" s="48"/>
       <c r="C147" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D147" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A148" s="44"/>
       <c r="B148" s="48"/>
       <c r="C148" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -6114,14 +6427,14 @@
         <v>25</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A151" s="44"/>
       <c r="B151" s="48"/>
       <c r="C151" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D151" s="29" t="s">
         <v>26</v>
@@ -6131,20 +6444,20 @@
       <c r="A152" s="44"/>
       <c r="B152" s="48"/>
       <c r="C152" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A153" s="44"/>
       <c r="B153" s="48"/>
       <c r="C153" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D153" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -6158,14 +6471,14 @@
         <v>25</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A156" s="44"/>
       <c r="B156" s="48"/>
       <c r="C156" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D156" s="29" t="s">
         <v>26</v>
@@ -6175,10 +6488,10 @@
       <c r="A157" s="44"/>
       <c r="B157" s="48"/>
       <c r="C157" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D157" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -6192,14 +6505,14 @@
         <v>25</v>
       </c>
       <c r="D159" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A160" s="44"/>
       <c r="B160" s="48"/>
       <c r="C160" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D160" s="29" t="s">
         <v>26</v>
@@ -6209,40 +6522,40 @@
       <c r="A161" s="44"/>
       <c r="B161" s="48"/>
       <c r="C161" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A162" s="44"/>
       <c r="B162" s="48"/>
       <c r="C162" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D162" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A163" s="44"/>
       <c r="B163" s="48"/>
       <c r="C163" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D163" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A164" s="44"/>
       <c r="B164" s="48"/>
       <c r="C164" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D164" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -6256,14 +6569,14 @@
         <v>25</v>
       </c>
       <c r="D166" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A167" s="44"/>
       <c r="B167" s="48"/>
       <c r="C167" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D167" s="29" t="s">
         <v>26</v>
@@ -6273,25 +6586,25 @@
       <c r="A168" s="44"/>
       <c r="B168" s="48"/>
       <c r="C168" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D168" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A169" s="44"/>
       <c r="B169" s="48"/>
       <c r="C169" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D169" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A171" s="44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B171" s="48" t="s">
         <v>318</v>
@@ -6300,14 +6613,14 @@
         <v>25</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A172" s="44"/>
       <c r="B172" s="48"/>
       <c r="C172" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D172" s="29" t="s">
         <v>26</v>
@@ -6317,45 +6630,45 @@
       <c r="A173" s="44"/>
       <c r="B173" s="48"/>
       <c r="C173" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D173" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A174" s="44"/>
       <c r="B174" s="48"/>
       <c r="C174" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A175" s="44"/>
       <c r="B175" s="48"/>
       <c r="C175" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D175" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A176" s="44"/>
       <c r="B176" s="48"/>
       <c r="C176" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D176" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A178" s="44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B178" s="48" t="s">
         <v>319</v>
@@ -6364,14 +6677,14 @@
         <v>25</v>
       </c>
       <c r="D178" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A179" s="44"/>
       <c r="B179" s="48"/>
       <c r="C179" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D179" s="29" t="s">
         <v>26</v>
@@ -6381,25 +6694,25 @@
       <c r="A180" s="44"/>
       <c r="B180" s="48"/>
       <c r="C180" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D180" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A181" s="44"/>
       <c r="B181" s="48"/>
       <c r="C181" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D181" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A183" s="44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>321</v>
@@ -6408,14 +6721,14 @@
         <v>25</v>
       </c>
       <c r="D183" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A184" s="44"/>
       <c r="B184" s="48"/>
       <c r="C184" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D184" s="29" t="s">
         <v>26</v>
@@ -6442,14 +6755,14 @@
         <v>25</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A187" s="44"/>
       <c r="B187" s="48"/>
       <c r="C187" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D187" s="29" t="s">
         <v>26</v>
@@ -6469,35 +6782,35 @@
       <c r="A189" s="44"/>
       <c r="B189" s="48"/>
       <c r="C189" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D189" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A190" s="44"/>
       <c r="B190" s="48"/>
       <c r="C190" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D190" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A191" s="44"/>
       <c r="B191" s="48"/>
       <c r="C191" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D191" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A193" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B193" s="48" t="s">
         <v>323</v>
@@ -6506,14 +6819,14 @@
         <v>25</v>
       </c>
       <c r="D193" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A194" s="44"/>
       <c r="B194" s="48"/>
       <c r="C194" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D194" s="29" t="s">
         <v>26</v>
@@ -6533,15 +6846,15 @@
       <c r="A196" s="44"/>
       <c r="B196" s="48"/>
       <c r="C196" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A198" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B198" s="48" t="s">
         <v>324</v>
@@ -6550,14 +6863,14 @@
         <v>25</v>
       </c>
       <c r="D198" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A199" s="44"/>
       <c r="B199" s="48"/>
       <c r="C199" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D199" s="29" t="s">
         <v>26</v>
@@ -6577,35 +6890,35 @@
       <c r="A201" s="44"/>
       <c r="B201" s="48"/>
       <c r="C201" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D201" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A202" s="44"/>
       <c r="B202" s="48"/>
       <c r="C202" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D202" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A203" s="44"/>
       <c r="B203" s="48"/>
       <c r="C203" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D203" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A204" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B204" s="48" t="s">
         <v>325</v>
@@ -6614,14 +6927,14 @@
         <v>25</v>
       </c>
       <c r="D204" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A205" s="44"/>
       <c r="B205" s="48"/>
       <c r="C205" s="30" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="D205" s="29" t="s">
         <v>26</v>
@@ -6729,6 +7042,882 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFA25CC-D114-49B5-BF45-43D10E470B36}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="50.06640625" customWidth="1"/>
+    <col min="4" max="4" width="57.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="36" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="36" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="36" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A501E9F3-44C1-46F2-A36F-96AE7BCE5B7E}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.265625" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="72.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="60" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="61" t="s">
+        <v>535</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="61" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>531</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>531</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f ca="1">+A29:C29</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA10BEB-DB92-43BF-A1E6-E4C1FBE5FA3F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.1328125" customWidth="1"/>
+    <col min="2" max="2" width="51.796875" customWidth="1"/>
+    <col min="3" max="3" width="40.9296875" customWidth="1"/>
+    <col min="4" max="4" width="66.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A8E26B-8258-49FC-B45A-99BEF8AEDDEF}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="52.59765625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="64"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="37.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22" s="41"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2619E6FB-EA2D-47E8-B572-E1216A488EB7}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.265625" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" customWidth="1"/>
+    <col min="4" max="4" width="60.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70B1112-F064-4686-9548-33A043A57E15}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.9296875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="53.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED05F38-601D-45C1-B25E-6DB85E06526B}">
   <dimension ref="A1:E23"/>
@@ -6748,232 +7937,232 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>454</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>457</v>
-      </c>
       <c r="D2" s="37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
       <c r="C6" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="42"/>
       <c r="C7" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="42"/>
       <c r="C8" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41"/>
       <c r="B10" s="42"/>
       <c r="C10" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
       <c r="C14" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>477</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="42"/>
       <c r="C16" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>480</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
       <c r="C17" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>483</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
       <c r="B18" s="42"/>
       <c r="C18" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="42"/>
       <c r="C19" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>486</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="42"/>
       <c r="C20" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
       <c r="B23" s="42"/>
       <c r="C23" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>490</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -7011,10 +8200,10 @@
         <v>273</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>492</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>493</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>276</v>
@@ -7025,13 +8214,13 @@
         <v>277</v>
       </c>
       <c r="B2" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="36" t="s">
         <v>496</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7039,7 +8228,7 @@
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7047,7 +8236,7 @@
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -7062,10 +8251,1854 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E9F4-C273-4770-93D7-BAD82376940C}">
+  <dimension ref="A1:H475"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="7" customWidth="1"/>
+    <col min="2" max="2" width="52.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="C14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="C15" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="C16" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="C17" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="C38" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="23"/>
+    </row>
+    <row r="46" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="24"/>
+    </row>
+    <row r="53" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A59" s="44"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="24"/>
+    </row>
+    <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="44"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A64" s="44"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="44"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A66" s="44"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="44"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="23"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="23"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="24"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="24"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C76" s="24"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="23"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="23"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="24"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="23"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="24"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="23"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="23"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="23"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="24"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="23"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="24"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="23"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="23"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="23"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="23"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="24"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="23"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="24"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="23"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="23"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="23"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="23"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="24"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="23"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="24"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="23"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="23"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="23"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="24"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="23"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="24"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="23"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="23"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="23"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="24"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="23"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="24"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="23"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="23"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="23"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="24"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="23"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="24"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="23"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="23"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="23"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="24"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="23"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="24"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="24"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="23"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="23"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="24"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="23"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="24"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="24"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="23"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="23"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="24"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="23"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="24"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="24"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="23"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="23"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="24"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="23"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="24"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="24"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="24"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="23"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="24"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="23"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="24"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="24"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="24"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="23"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="24"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="23"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="24"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="24"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="24"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="23"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="24"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="23"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="24"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="24"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="24"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="24"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="23"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="24"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="23"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="24"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="24"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="24"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="24"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="23"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="24"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="23"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="24"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="24"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="24"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="24"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="23"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="24"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="23"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="24"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="24"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="24"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="24"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="23"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="24"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="23"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="24"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="24"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="24"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="24"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="23"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="24"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="23"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="24"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="24"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="24"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="24"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="23"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="24"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="23"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="24"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="23"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="24"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="23"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="24"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="23"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="24"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="23"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="24"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="23"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="24"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="23"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="24"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="23"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="23"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="24"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="23"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="24"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="23"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="24"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="23"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="23"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="23"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="23"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="23"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" s="24"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="23"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="24"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="23"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" s="23"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" s="23"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="23"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="24"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="23"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="24"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="23"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" s="23"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" s="23"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" s="24"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" s="23"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" s="24"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" s="23"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" s="23"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" s="23"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C251" s="24"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" s="23"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C253" s="24"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C254" s="23"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="23"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" s="23"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C257" s="23"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C258" s="24"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C259" s="23"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C260" s="24"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C261" s="23"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C262" s="23"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C263" s="23"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C264" s="23"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C265" s="24"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C266" s="23"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C267" s="24"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C268" s="24"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C269" s="23"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C270" s="23"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C271" s="24"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C272" s="23"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C273" s="24"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C274" s="24"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C275" s="24"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C276" s="23"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C277" s="23"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C278" s="24"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C279" s="23"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C280" s="24"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C281" s="24"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C282" s="23"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C283" s="23"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C284" s="24"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C285" s="23"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C286" s="24"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C287" s="23"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C288" s="23"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C289" s="23"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C290" s="24"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C291" s="23"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C292" s="24"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C293" s="23"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C294" s="23"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C295" s="23"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C296" s="24"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C297" s="23"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C298" s="24"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C299" s="24"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C300" s="23"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C301" s="23"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C302" s="24"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C303" s="23"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C304" s="24"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C305" s="24"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C306" s="23"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C308" s="23"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C309" s="23"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C310" s="23"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C311" s="23"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C313" s="23"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C314" s="23"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C315" s="23"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C316" s="23"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C318" s="23"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C319" s="23"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C320" s="23"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C321" s="23"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C323" s="23"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C324" s="23"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C325" s="23"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C326" s="23"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C328" s="23"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C329" s="23"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C330" s="23"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C331" s="23"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C333" s="23"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C334" s="23"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C335" s="23"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C336" s="23"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C338" s="23"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C339" s="23"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C340" s="23"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C341" s="23"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C343" s="23"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C344" s="23"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C345" s="23"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C346" s="23"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C347" s="23"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C348" s="23"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C349" s="23"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C350" s="23"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C351" s="23"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C352" s="23"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C353" s="23"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C354" s="23"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C355" s="23"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C357" s="23"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C358" s="23"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C359" s="23"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C360" s="23"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C361" s="23"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C362" s="23"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C363" s="23"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C365" s="23"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C366" s="23"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C367" s="23"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C368" s="23"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C369" s="23"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C370" s="23"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C371" s="23"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C373" s="23"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C374" s="23"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C375" s="23"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C376" s="23"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C377" s="23"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C378" s="23"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C380" s="23"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C381" s="23"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C382" s="23"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C383" s="23"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C384" s="23"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C385" s="23"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C387" s="23"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C388" s="23"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C389" s="23"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C390" s="23"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C392" s="23"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C393" s="23"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C394" s="23"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C395" s="23"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C396" s="23"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C397" s="23"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C398" s="23"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C399" s="23"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C400" s="23"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C401" s="23"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C403" s="23"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C404" s="23"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C405" s="23"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C406" s="23"/>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C407" s="23"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C408" s="23"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C409" s="23"/>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C411" s="23"/>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C412" s="23"/>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C413" s="23"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C414" s="23"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C415" s="23"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C416" s="23"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C418" s="23"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C419" s="23"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C420" s="23"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C421" s="23"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C423" s="23"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C424" s="23"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C425" s="23"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C427" s="23"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C428" s="23"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C429" s="23"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C430" s="23"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C431" s="23"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C432" s="23"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C434" s="23"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C435" s="23"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C436" s="23"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C437" s="23"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C439" s="23"/>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C440" s="23"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C441" s="23"/>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C442" s="23"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C443" s="23"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C444" s="23"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C446" s="23"/>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C447" s="23"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C448" s="23"/>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C449" s="23"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C451" s="23"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C452" s="23"/>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C453" s="23"/>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C454" s="23"/>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C455" s="23"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C456" s="23"/>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C457" s="23"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C458" s="23"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C459" s="23"/>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C461" s="23"/>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C462" s="23"/>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C463" s="23"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C464" s="23"/>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C466" s="23"/>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C467" s="23"/>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C468" s="23"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C469" s="23"/>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C470" s="23"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C471" s="23"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C472" s="23"/>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C473" s="23"/>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C474" s="23"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C475" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9CA3CB-6959-4755-AF7C-E9808B2F5869}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -7083,148 +10116,148 @@
         <v>273</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="E1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>504</v>
-      </c>
       <c r="C2" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="36" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
-        <v>469</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>515</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -7241,7 +10274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
@@ -7784,7 +10817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z510"/>
   <sheetViews>
@@ -7876,7 +10909,7 @@
       <c r="A4" s="44"/>
       <c r="B4" s="47"/>
       <c r="C4" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>26</v>
@@ -7923,7 +10956,7 @@
       <c r="A9" s="44"/>
       <c r="B9" s="48"/>
       <c r="C9" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>26</v>
@@ -7987,7 +11020,7 @@
       <c r="A15" s="44"/>
       <c r="B15" s="43"/>
       <c r="C15" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>26</v>
@@ -8055,7 +11088,7 @@
       <c r="A22" s="44"/>
       <c r="B22" s="43"/>
       <c r="C22" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>26</v>
@@ -8123,7 +11156,7 @@
       <c r="A29" s="44"/>
       <c r="B29" s="49"/>
       <c r="C29" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>26</v>
@@ -8192,7 +11225,7 @@
       <c r="A36" s="44"/>
       <c r="B36" s="43"/>
       <c r="C36" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>26</v>
@@ -8261,7 +11294,7 @@
       <c r="A43" s="44"/>
       <c r="B43" s="43"/>
       <c r="C43" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>26</v>
@@ -8325,7 +11358,7 @@
       <c r="A50" s="44"/>
       <c r="B50" s="48"/>
       <c r="C50" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>26</v>
@@ -8389,7 +11422,7 @@
       <c r="A57" s="44"/>
       <c r="B57" s="43"/>
       <c r="C57" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>26</v>
@@ -8457,7 +11490,7 @@
       <c r="A64" s="44"/>
       <c r="B64" s="43"/>
       <c r="C64" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>26</v>
@@ -8546,7 +11579,7 @@
       <c r="A73" s="44"/>
       <c r="B73" s="43"/>
       <c r="C73" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>26</v>
@@ -8630,7 +11663,7 @@
       <c r="A82" s="44"/>
       <c r="B82" s="43"/>
       <c r="C82" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>26</v>
@@ -8699,7 +11732,7 @@
       <c r="A89" s="44"/>
       <c r="B89" s="43"/>
       <c r="C89" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>26</v>
@@ -8778,7 +11811,7 @@
       <c r="A97" s="44"/>
       <c r="B97" s="43"/>
       <c r="C97" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>26</v>
@@ -8847,7 +11880,7 @@
       <c r="A104" s="44"/>
       <c r="B104" s="43"/>
       <c r="C104" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>26</v>
@@ -8905,7 +11938,7 @@
       <c r="A110" s="44"/>
       <c r="B110" s="43"/>
       <c r="C110" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>26</v>
@@ -8964,7 +11997,7 @@
       <c r="A116" s="44"/>
       <c r="B116" s="43"/>
       <c r="C116" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>26</v>
@@ -9023,7 +12056,7 @@
       <c r="A122" s="44"/>
       <c r="B122" s="43"/>
       <c r="C122" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>26</v>
@@ -9082,7 +12115,7 @@
       <c r="A128" s="44"/>
       <c r="B128" s="43"/>
       <c r="C128" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>26</v>
@@ -9141,7 +12174,7 @@
       <c r="A134" s="44"/>
       <c r="B134" s="43"/>
       <c r="C134" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>26</v>
@@ -9200,7 +12233,7 @@
       <c r="A140" s="44"/>
       <c r="B140" s="43"/>
       <c r="C140" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>26</v>
@@ -9259,7 +12292,7 @@
       <c r="A146" s="44"/>
       <c r="B146" s="43"/>
       <c r="C146" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>26</v>
@@ -9319,7 +12352,7 @@
       <c r="A152" s="44"/>
       <c r="B152" s="43"/>
       <c r="C152" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>26</v>
@@ -9379,7 +12412,7 @@
       <c r="A158" s="44"/>
       <c r="B158" s="43"/>
       <c r="C158" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>26</v>
@@ -9439,7 +12472,7 @@
       <c r="A164" s="44"/>
       <c r="B164" s="43"/>
       <c r="C164" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>26</v>
@@ -9509,7 +12542,7 @@
       <c r="A171" s="44"/>
       <c r="B171" s="43"/>
       <c r="C171" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>26</v>
@@ -9579,7 +12612,7 @@
       <c r="A178" s="44"/>
       <c r="B178" s="43"/>
       <c r="C178" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D178" s="18" t="s">
         <v>26</v>
@@ -9649,7 +12682,7 @@
       <c r="A185" s="44"/>
       <c r="B185" s="43"/>
       <c r="C185" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D185" s="18" t="s">
         <v>26</v>
@@ -9719,7 +12752,7 @@
       <c r="A192" s="44"/>
       <c r="B192" s="43"/>
       <c r="C192" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D192" s="18" t="s">
         <v>26</v>
@@ -9789,7 +12822,7 @@
       <c r="A199" s="44"/>
       <c r="B199" s="43"/>
       <c r="C199" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D199" s="18" t="s">
         <v>26</v>
@@ -9859,7 +12892,7 @@
       <c r="A206" s="44"/>
       <c r="B206" s="43"/>
       <c r="C206" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D206" s="18" t="s">
         <v>26</v>
@@ -9919,7 +12952,7 @@
       <c r="A212" s="44"/>
       <c r="B212" s="43"/>
       <c r="C212" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D212" s="18" t="s">
         <v>26</v>
@@ -9979,7 +13012,7 @@
       <c r="A218" s="44"/>
       <c r="B218" s="43"/>
       <c r="C218" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D218" s="18" t="s">
         <v>26</v>
@@ -10049,7 +13082,7 @@
       <c r="A225" s="44"/>
       <c r="B225" s="43"/>
       <c r="C225" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D225" s="18" t="s">
         <v>26</v>
@@ -10129,7 +13162,7 @@
       <c r="A233" s="44"/>
       <c r="B233" s="43"/>
       <c r="C233" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D233" s="18" t="s">
         <v>26</v>
@@ -10199,7 +13232,7 @@
       <c r="A240" s="44"/>
       <c r="B240" s="43"/>
       <c r="C240" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D240" s="18" t="s">
         <v>26</v>
@@ -10259,7 +13292,7 @@
       <c r="A246" s="44"/>
       <c r="B246" s="43"/>
       <c r="C246" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D246" s="18" t="s">
         <v>26</v>
@@ -10319,7 +13352,7 @@
       <c r="A252" s="44"/>
       <c r="B252" s="43"/>
       <c r="C252" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D252" s="18" t="s">
         <v>26</v>
@@ -10389,7 +13422,7 @@
       <c r="A259" s="44"/>
       <c r="B259" s="43"/>
       <c r="C259" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D259" s="18" t="s">
         <v>26</v>
@@ -10458,7 +13491,7 @@
       <c r="A266" s="44"/>
       <c r="B266" s="43"/>
       <c r="C266" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D266" s="18" t="s">
         <v>26</v>
@@ -10517,7 +13550,7 @@
       <c r="A272" s="44"/>
       <c r="B272" s="43"/>
       <c r="C272" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>26</v>
@@ -10586,7 +13619,7 @@
       <c r="A279" s="44"/>
       <c r="B279" s="43"/>
       <c r="C279" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>26</v>
@@ -10645,7 +13678,7 @@
       <c r="A285" s="44"/>
       <c r="B285" s="43"/>
       <c r="C285" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>26</v>
@@ -10704,7 +13737,7 @@
       <c r="A291" s="44"/>
       <c r="B291" s="43"/>
       <c r="C291" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D291" s="18" t="s">
         <v>26</v>
@@ -10761,7 +13794,7 @@
     <row r="297" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="C297" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D297" s="18" t="s">
         <v>26</v>
@@ -10816,7 +13849,7 @@
     <row r="303" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="C303" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>26</v>
@@ -11970,7 +15003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864DDFB4-7E7B-432C-AB09-C7FE52E7A109}">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
@@ -28620,1856 +31653,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E9F4-C273-4770-93D7-BAD82376940C}">
-  <dimension ref="A1:H475"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13" style="7" customWidth="1"/>
-    <col min="2" max="2" width="52.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="55.59765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="C14" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="C16" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="C17" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="C38" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="23"/>
-    </row>
-    <row r="46" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="24"/>
-    </row>
-    <row r="53" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A59" s="44"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C60" s="24"/>
-    </row>
-    <row r="61" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A66" s="44"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="44"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C68" s="23"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C69" s="23"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C70" s="23"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C71" s="23"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C72" s="24"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C73" s="23"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C74" s="24"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C76" s="24"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C77" s="23"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C78" s="23"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C80" s="23"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="24"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="23"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="24"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="23"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="23"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="23"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="23"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="24"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="23"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="24"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="23"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="23"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="23"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="23"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="23"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="24"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="23"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="24"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="23"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="23"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="23"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="23"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="24"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="23"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="24"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="23"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="23"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="23"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="24"/>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C110" s="23"/>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="24"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" s="23"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" s="23"/>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="23"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="24"/>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="23"/>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="24"/>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="23"/>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="23"/>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C120" s="23"/>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C121" s="24"/>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C122" s="23"/>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C123" s="24"/>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="23"/>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="23"/>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="23"/>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="24"/>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="23"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="24"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="24"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="23"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C132" s="23"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C133" s="24"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="23"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="24"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="24"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="23"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C138" s="23"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="24"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C140" s="23"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="24"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C142" s="24"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C143" s="23"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="23"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="24"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="23"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="24"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="24"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="24"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" s="23"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="24"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="23"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="24"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="24"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="24"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" s="23"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="24"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="23"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="24"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="24"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="24"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C162" s="23"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="24"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C164" s="23"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="24"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C166" s="24"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="24"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C168" s="24"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="23"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="24"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C171" s="23"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C172" s="24"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="24"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C174" s="24"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C175" s="24"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C176" s="23"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C177" s="24"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C178" s="23"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C179" s="24"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C180" s="24"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="24"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C182" s="24"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C183" s="23"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C184" s="24"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C185" s="23"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C186" s="24"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C187" s="24"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C188" s="24"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C189" s="24"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C190" s="23"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="24"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C192" s="23"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C193" s="24"/>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C194" s="24"/>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C195" s="24"/>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C196" s="24"/>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C197" s="23"/>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C198" s="24"/>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C199" s="23"/>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C200" s="24"/>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C201" s="24"/>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C202" s="24"/>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C203" s="24"/>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C204" s="23"/>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C205" s="24"/>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C206" s="23"/>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C207" s="24"/>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C208" s="23"/>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C209" s="24"/>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C210" s="23"/>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" s="24"/>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C212" s="23"/>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C213" s="24"/>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="23"/>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C215" s="24"/>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C216" s="23"/>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C217" s="24"/>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="23"/>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C219" s="24"/>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C220" s="23"/>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C221" s="23"/>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C222" s="24"/>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C223" s="23"/>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C224" s="24"/>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C225" s="23"/>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C226" s="24"/>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C227" s="23"/>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C228" s="23"/>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C229" s="23"/>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C230" s="23"/>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C231" s="23"/>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C232" s="24"/>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C233" s="23"/>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C234" s="24"/>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C235" s="23"/>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C236" s="23"/>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C237" s="23"/>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C238" s="23"/>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C239" s="24"/>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C240" s="23"/>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C241" s="24"/>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C242" s="23"/>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C243" s="23"/>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C244" s="23"/>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C245" s="24"/>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C246" s="23"/>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C247" s="24"/>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C248" s="23"/>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C249" s="23"/>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C250" s="23"/>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C251" s="24"/>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C252" s="23"/>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C253" s="24"/>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C254" s="23"/>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C255" s="23"/>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C256" s="23"/>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C257" s="23"/>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C258" s="24"/>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C259" s="23"/>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C260" s="24"/>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C261" s="23"/>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C262" s="23"/>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C263" s="23"/>
-    </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C264" s="23"/>
-    </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C265" s="24"/>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C266" s="23"/>
-    </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C267" s="24"/>
-    </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C268" s="24"/>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C269" s="23"/>
-    </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C270" s="23"/>
-    </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C271" s="24"/>
-    </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C272" s="23"/>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C273" s="24"/>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C274" s="24"/>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C275" s="24"/>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C276" s="23"/>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C277" s="23"/>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C278" s="24"/>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C279" s="23"/>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C280" s="24"/>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C281" s="24"/>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C282" s="23"/>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C283" s="23"/>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C284" s="24"/>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C285" s="23"/>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C286" s="24"/>
-    </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C287" s="23"/>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C288" s="23"/>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C289" s="23"/>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C290" s="24"/>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C291" s="23"/>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C292" s="24"/>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C293" s="23"/>
-    </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C294" s="23"/>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C295" s="23"/>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C296" s="24"/>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C297" s="23"/>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C298" s="24"/>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C299" s="24"/>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C300" s="23"/>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C301" s="23"/>
-    </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C302" s="24"/>
-    </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C303" s="23"/>
-    </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C304" s="24"/>
-    </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C305" s="24"/>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C306" s="23"/>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C308" s="23"/>
-    </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C309" s="23"/>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C310" s="23"/>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C311" s="23"/>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C313" s="23"/>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C314" s="23"/>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C315" s="23"/>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C316" s="23"/>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C318" s="23"/>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C319" s="23"/>
-    </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C320" s="23"/>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C321" s="23"/>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C323" s="23"/>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C324" s="23"/>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C325" s="23"/>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C326" s="23"/>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C328" s="23"/>
-    </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C329" s="23"/>
-    </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C330" s="23"/>
-    </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C331" s="23"/>
-    </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C333" s="23"/>
-    </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C334" s="23"/>
-    </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C335" s="23"/>
-    </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C336" s="23"/>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C338" s="23"/>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C339" s="23"/>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C340" s="23"/>
-    </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C341" s="23"/>
-    </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C343" s="23"/>
-    </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C344" s="23"/>
-    </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C345" s="23"/>
-    </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C346" s="23"/>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C347" s="23"/>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C348" s="23"/>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C349" s="23"/>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C350" s="23"/>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C351" s="23"/>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C352" s="23"/>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C353" s="23"/>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C354" s="23"/>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C355" s="23"/>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C357" s="23"/>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C358" s="23"/>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C359" s="23"/>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C360" s="23"/>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C361" s="23"/>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C362" s="23"/>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C363" s="23"/>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C365" s="23"/>
-    </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C366" s="23"/>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C367" s="23"/>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C368" s="23"/>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C369" s="23"/>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C370" s="23"/>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C371" s="23"/>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C373" s="23"/>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C374" s="23"/>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C375" s="23"/>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C376" s="23"/>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C377" s="23"/>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C378" s="23"/>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C380" s="23"/>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C381" s="23"/>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C382" s="23"/>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C383" s="23"/>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C384" s="23"/>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C385" s="23"/>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C387" s="23"/>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C388" s="23"/>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C389" s="23"/>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C390" s="23"/>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C392" s="23"/>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C393" s="23"/>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C394" s="23"/>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C395" s="23"/>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C396" s="23"/>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C397" s="23"/>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C398" s="23"/>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C399" s="23"/>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C400" s="23"/>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C401" s="23"/>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C403" s="23"/>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C404" s="23"/>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C405" s="23"/>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C406" s="23"/>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C407" s="23"/>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C408" s="23"/>
-    </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C409" s="23"/>
-    </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C411" s="23"/>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C412" s="23"/>
-    </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C413" s="23"/>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C414" s="23"/>
-    </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C415" s="23"/>
-    </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C416" s="23"/>
-    </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C418" s="23"/>
-    </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C419" s="23"/>
-    </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C420" s="23"/>
-    </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C421" s="23"/>
-    </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C423" s="23"/>
-    </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C424" s="23"/>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C425" s="23"/>
-    </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C427" s="23"/>
-    </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C428" s="23"/>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C429" s="23"/>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C430" s="23"/>
-    </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C431" s="23"/>
-    </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C432" s="23"/>
-    </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C434" s="23"/>
-    </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C435" s="23"/>
-    </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C436" s="23"/>
-    </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C437" s="23"/>
-    </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C439" s="23"/>
-    </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C440" s="23"/>
-    </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C441" s="23"/>
-    </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C442" s="23"/>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C443" s="23"/>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C444" s="23"/>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C446" s="23"/>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C447" s="23"/>
-    </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C448" s="23"/>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C449" s="23"/>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C451" s="23"/>
-    </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C452" s="23"/>
-    </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C453" s="23"/>
-    </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C454" s="23"/>
-    </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C455" s="23"/>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C456" s="23"/>
-    </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C457" s="23"/>
-    </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C458" s="23"/>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C459" s="23"/>
-    </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C461" s="23"/>
-    </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C462" s="23"/>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C463" s="23"/>
-    </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C464" s="23"/>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C466" s="23"/>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C467" s="23"/>
-    </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C468" s="23"/>
-    </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C469" s="23"/>
-    </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C470" s="23"/>
-    </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C471" s="23"/>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C472" s="23"/>
-    </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C473" s="23"/>
-    </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C474" s="23"/>
-    </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C475" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB827CE-199D-40F1-B487-664CF2CD2643}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
